--- a/data/influence.xlsx
+++ b/data/influence.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/DissAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_AFC0BCCA8F79A8D366075C52F37BD2728A44EEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_AFC0BCCA8F79A8D366075C52F37BD2728A44EEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{004AB5C9-8CB0-4E85-B5CF-D37D31CED81C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="792">
   <si>
     <t>rstudent</t>
   </si>
@@ -2342,13 +2352,67 @@
   </si>
   <si>
     <t>561</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>water depth 8 cm</t>
+  </si>
+  <si>
+    <t>water depth 8 cm, persa</t>
+  </si>
+  <si>
+    <t>persa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no strain reported, pretest mice</t>
+  </si>
+  <si>
+    <t>pretest mice</t>
+  </si>
+  <si>
+    <t>10/14, other studies from this publication also used this light regime, but for this comparsons the immobility time of vehicle was higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F, ovariectomized, subcutaneous</t>
+  </si>
+  <si>
+    <t>CUMs</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>low emotional, 12/12 reverse</t>
+  </si>
+  <si>
+    <t>high emotional, 12/12 reverse</t>
+  </si>
+  <si>
+    <t>erro na escala, corrigi na planilha crua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stress reserpine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sex? no info bioterium and duration of tratement</t>
+  </si>
+  <si>
+    <t>laca</t>
+  </si>
+  <si>
+    <t>erro, adicionei stress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2360,6 +2424,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2385,11 +2455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2728,13 +2799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L562"/>
+  <dimension ref="A1:M562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F196" workbookViewId="0">
+      <selection activeCell="O203" sqref="O203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,8 +2844,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.50645032777515275</v>
       </c>
@@ -2806,8 +2882,11 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.1137250905688729</v>
       </c>
@@ -2841,8 +2920,11 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7204971166309946</v>
       </c>
@@ -2876,8 +2958,11 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.69034134212324127</v>
       </c>
@@ -2911,8 +2996,11 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.2424657481085141</v>
       </c>
@@ -2946,8 +3034,11 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.3267440813089504</v>
       </c>
@@ -2981,8 +3072,11 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.55708244547947594</v>
       </c>
@@ -3016,8 +3110,11 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.22483479006665091</v>
       </c>
@@ -3051,8 +3148,11 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.48960510274699842</v>
       </c>
@@ -3086,8 +3186,11 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.87362911245831176</v>
       </c>
@@ -3121,8 +3224,11 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.28455508520583889</v>
       </c>
@@ -3156,8 +3262,11 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.4351410721527863</v>
       </c>
@@ -3191,8 +3300,11 @@
       <c r="L13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.5755436934345119</v>
       </c>
@@ -3226,8 +3338,11 @@
       <c r="L14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.27895848014988528</v>
       </c>
@@ -3261,8 +3376,11 @@
       <c r="L15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.1153830405671728</v>
       </c>
@@ -3296,8 +3414,11 @@
       <c r="L16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.252511408677385</v>
       </c>
@@ -3334,8 +3455,11 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.55141560138626322</v>
       </c>
@@ -3369,8 +3493,11 @@
       <c r="L18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.9788527650117751</v>
       </c>
@@ -3407,8 +3534,11 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.0468519085060857</v>
       </c>
@@ -3445,8 +3575,11 @@
       <c r="L20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.9991872122867371</v>
       </c>
@@ -3483,8 +3616,11 @@
       <c r="L21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.0279423505640013</v>
       </c>
@@ -3521,8 +3657,11 @@
       <c r="L22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.41593720697162623</v>
       </c>
@@ -3556,8 +3695,11 @@
       <c r="L23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.20583340357838359</v>
       </c>
@@ -3591,8 +3733,11 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.82941689361353532</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="L25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.59593229700069617</v>
       </c>
@@ -3661,8 +3809,11 @@
       <c r="L26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.6002542204981971</v>
       </c>
@@ -3696,8 +3847,11 @@
       <c r="L27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.6195588468459401</v>
       </c>
@@ -3731,8 +3885,11 @@
       <c r="L28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.8942609218629201</v>
       </c>
@@ -3766,8 +3923,11 @@
       <c r="L29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.386551389796697</v>
       </c>
@@ -3801,8 +3961,11 @@
       <c r="L30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-4.8690039353504411E-2</v>
       </c>
@@ -3836,8 +3999,11 @@
       <c r="L31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.89942392103964852</v>
       </c>
@@ -3871,8 +4037,11 @@
       <c r="L32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.4762618492618931</v>
       </c>
@@ -3906,8 +4075,11 @@
       <c r="L33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.6571941741085621</v>
       </c>
@@ -3941,8 +4113,11 @@
       <c r="L34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.33135088220520792</v>
       </c>
@@ -3976,8 +4151,11 @@
       <c r="L35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.7798654460299782</v>
       </c>
@@ -4011,8 +4189,11 @@
       <c r="L36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.7192016890592621</v>
       </c>
@@ -4046,8 +4227,11 @@
       <c r="L37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1981923523296492</v>
       </c>
@@ -4081,8 +4265,11 @@
       <c r="L38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.7139790793909189</v>
       </c>
@@ -4116,8 +4303,11 @@
       <c r="L39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.3061531785637031</v>
       </c>
@@ -4151,8 +4341,11 @@
       <c r="L40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.449394143499301</v>
       </c>
@@ -4186,8 +4379,11 @@
       <c r="L41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.77815440420215032</v>
       </c>
@@ -4221,8 +4417,11 @@
       <c r="L42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.9966436444676611E-2</v>
       </c>
@@ -4256,8 +4455,11 @@
       <c r="L43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.69580818214668505</v>
       </c>
@@ -4291,8 +4493,11 @@
       <c r="L44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.12135499315076</v>
       </c>
@@ -4326,8 +4531,11 @@
       <c r="L45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.15932123729971279</v>
       </c>
@@ -4361,8 +4569,11 @@
       <c r="L46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.070062922336682E-2</v>
       </c>
@@ -4396,8 +4607,11 @@
       <c r="L47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.98092262823884591</v>
       </c>
@@ -4431,8 +4645,11 @@
       <c r="L48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.3835955885622214E-2</v>
       </c>
@@ -4466,8 +4683,11 @@
       <c r="L49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.4529581204563562</v>
       </c>
@@ -4504,8 +4724,11 @@
       <c r="L50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.8908611781919542</v>
       </c>
@@ -4542,8 +4765,11 @@
       <c r="L51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.7067173738556392</v>
       </c>
@@ -4580,8 +4806,11 @@
       <c r="L52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.0590854768060671</v>
       </c>
@@ -4615,8 +4844,11 @@
       <c r="L53" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.34078232431563987</v>
       </c>
@@ -4650,8 +4882,11 @@
       <c r="L54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.420614321313731</v>
       </c>
@@ -4685,8 +4920,11 @@
       <c r="L55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.48307981046917198</v>
       </c>
@@ -4720,8 +4958,11 @@
       <c r="L56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.0750441562048788E-2</v>
       </c>
@@ -4755,8 +4996,11 @@
       <c r="L57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.1970594128209219</v>
       </c>
@@ -4790,8 +5034,11 @@
       <c r="L58" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.5925137897206221</v>
       </c>
@@ -4825,8 +5072,11 @@
       <c r="L59" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.6793734287402771</v>
       </c>
@@ -4860,8 +5110,11 @@
       <c r="L60" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.0639375566232081</v>
       </c>
@@ -4895,8 +5148,11 @@
       <c r="L61" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.174961623534128</v>
       </c>
@@ -4930,8 +5186,11 @@
       <c r="L62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.89069524337510098</v>
       </c>
@@ -4965,8 +5224,11 @@
       <c r="L63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.76989774477440809</v>
       </c>
@@ -5000,8 +5262,11 @@
       <c r="L64" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.181928035049487</v>
       </c>
@@ -5038,8 +5303,11 @@
       <c r="L65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.63384339306356863</v>
       </c>
@@ -5073,8 +5341,11 @@
       <c r="L66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.1455500493074561</v>
       </c>
@@ -5108,8 +5379,11 @@
       <c r="L67" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.3489602212461911</v>
       </c>
@@ -5143,8 +5417,11 @@
       <c r="L68" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.6699882698558022</v>
       </c>
@@ -5181,8 +5458,11 @@
       <c r="L69" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.1502080929343199</v>
       </c>
@@ -5219,8 +5499,11 @@
       <c r="L70" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.63101361199020167</v>
       </c>
@@ -5254,8 +5537,11 @@
       <c r="L71" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.503065938444045</v>
       </c>
@@ -5289,8 +5575,11 @@
       <c r="L72" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.3082362126680808E-2</v>
       </c>
@@ -5324,8 +5613,11 @@
       <c r="L73" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.28260466743415158</v>
       </c>
@@ -5359,8 +5651,11 @@
       <c r="L74" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.47436472135413948</v>
       </c>
@@ -5394,8 +5689,11 @@
       <c r="L75" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.21392034357951289</v>
       </c>
@@ -5429,8 +5727,11 @@
       <c r="L76" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.0993254979237079</v>
       </c>
@@ -5464,8 +5765,11 @@
       <c r="L77" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.587349689667976</v>
       </c>
@@ -5499,8 +5803,11 @@
       <c r="L78" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.5387675792012481</v>
       </c>
@@ -5534,8 +5841,11 @@
       <c r="L79" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.9122396078079711</v>
       </c>
@@ -5572,8 +5882,11 @@
       <c r="L80" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.1697445271067671</v>
       </c>
@@ -5607,8 +5920,11 @@
       <c r="L81" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.24837299160406659</v>
       </c>
@@ -5642,8 +5958,11 @@
       <c r="L82" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.71359577726432444</v>
       </c>
@@ -5677,8 +5996,11 @@
       <c r="L83" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.64190119456576678</v>
       </c>
@@ -5712,8 +6034,11 @@
       <c r="L84" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.26283545684767451</v>
       </c>
@@ -5747,8 +6072,11 @@
       <c r="L85" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.27318952516414868</v>
       </c>
@@ -5782,8 +6110,11 @@
       <c r="L86" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.24134706052721139</v>
       </c>
@@ -5817,8 +6148,11 @@
       <c r="L87" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.4919702541542259</v>
       </c>
@@ -5852,8 +6186,11 @@
       <c r="L88" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.4355104653796351</v>
       </c>
@@ -5887,8 +6224,11 @@
       <c r="L89" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.179531967581902</v>
       </c>
@@ -5925,8 +6265,11 @@
       <c r="L90" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.57939759676741709</v>
       </c>
@@ -5960,8 +6303,11 @@
       <c r="L91" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-1.0383135298405779</v>
       </c>
@@ -5995,8 +6341,11 @@
       <c r="L92" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.1095483550940098</v>
       </c>
@@ -6030,8 +6379,11 @@
       <c r="L93" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.93406844120132537</v>
       </c>
@@ -6065,8 +6417,11 @@
       <c r="L94" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.30641359989346728</v>
       </c>
@@ -6100,8 +6455,11 @@
       <c r="L95" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.1083156935275848</v>
       </c>
@@ -6135,8 +6493,11 @@
       <c r="L96" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.34722252992980668</v>
       </c>
@@ -6170,8 +6531,11 @@
       <c r="L97" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.21056924017812409</v>
       </c>
@@ -6205,8 +6569,11 @@
       <c r="L98" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.1830763365016147</v>
       </c>
@@ -6240,8 +6607,11 @@
       <c r="L99" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.50140459034892582</v>
       </c>
@@ -6275,8 +6645,11 @@
       <c r="L100" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.0886376627211609</v>
       </c>
@@ -6310,8 +6683,11 @@
       <c r="L101" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.70686973013691257</v>
       </c>
@@ -6345,8 +6721,11 @@
       <c r="L102" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-1.1865835372653211</v>
       </c>
@@ -6380,8 +6759,11 @@
       <c r="L103" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.2139729882407571</v>
       </c>
@@ -6415,8 +6797,11 @@
       <c r="L104" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.2810637161327851</v>
       </c>
@@ -6450,8 +6835,11 @@
       <c r="L105" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-0.50453304836472723</v>
       </c>
@@ -6485,8 +6873,11 @@
       <c r="L106" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-0.48174674403134499</v>
       </c>
@@ -6520,8 +6911,11 @@
       <c r="L107" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-1.1602313808759419</v>
       </c>
@@ -6555,8 +6949,11 @@
       <c r="L108" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-4.0598439544178543E-2</v>
       </c>
@@ -6590,8 +6987,11 @@
       <c r="L109" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-0.64606266789605971</v>
       </c>
@@ -6625,8 +7025,11 @@
       <c r="L110" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.1224653419779185</v>
       </c>
@@ -6660,8 +7063,11 @@
       <c r="L111" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.315654181534684</v>
       </c>
@@ -6695,8 +7101,11 @@
       <c r="L112" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.1187001223083519</v>
       </c>
@@ -6730,8 +7139,11 @@
       <c r="L113" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-1.1654092570013519</v>
       </c>
@@ -6765,8 +7177,11 @@
       <c r="L114" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-0.59948164298514162</v>
       </c>
@@ -6800,8 +7215,11 @@
       <c r="L115" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-0.82353886437532831</v>
       </c>
@@ -6835,8 +7253,11 @@
       <c r="L116" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-0.58756801548323867</v>
       </c>
@@ -6870,8 +7291,11 @@
       <c r="L117" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-0.36825609761340389</v>
       </c>
@@ -6905,8 +7329,11 @@
       <c r="L118" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.89256395899732</v>
       </c>
@@ -6940,8 +7367,11 @@
       <c r="L119" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3.1950668081596421</v>
       </c>
@@ -6978,8 +7408,11 @@
       <c r="L120" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-2.8320691682674669E-2</v>
       </c>
@@ -7013,8 +7446,11 @@
       <c r="L121" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.34894489061640349</v>
       </c>
@@ -7048,8 +7484,11 @@
       <c r="L122" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.91040157745599226</v>
       </c>
@@ -7083,8 +7522,11 @@
       <c r="L123" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-0.92239355991828387</v>
       </c>
@@ -7118,8 +7560,11 @@
       <c r="L124" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.58636186437190163</v>
       </c>
@@ -7153,8 +7598,11 @@
       <c r="L125" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.3484831263165436</v>
       </c>
@@ -7188,8 +7636,11 @@
       <c r="L126" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-0.97168877067285653</v>
       </c>
@@ -7223,8 +7674,11 @@
       <c r="L127" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8.7989524568416633E-2</v>
       </c>
@@ -7258,8 +7712,11 @@
       <c r="L128" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.13222034638138769</v>
       </c>
@@ -7293,8 +7750,11 @@
       <c r="L129" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-1.9036162619497561</v>
       </c>
@@ -7328,8 +7788,11 @@
       <c r="L130" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-1.0434369441697759</v>
       </c>
@@ -7363,8 +7826,11 @@
       <c r="L131" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-1.278263174323095</v>
       </c>
@@ -7398,8 +7864,11 @@
       <c r="L132" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-0.99416087195965175</v>
       </c>
@@ -7433,8 +7902,11 @@
       <c r="L133" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.62208413155723663</v>
       </c>
@@ -7468,8 +7940,11 @@
       <c r="L134" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4.1751399823473996</v>
       </c>
@@ -7503,8 +7978,11 @@
       <c r="L135" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4.0662061487252164</v>
       </c>
@@ -7541,8 +8019,11 @@
       <c r="L136" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4.0330771171398494</v>
       </c>
@@ -7579,8 +8060,11 @@
       <c r="L137" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4.1692979743955361</v>
       </c>
@@ -7614,8 +8098,11 @@
       <c r="L138" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4.0042350205020094</v>
       </c>
@@ -7652,8 +8139,11 @@
       <c r="L139" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4.3984273884551843</v>
       </c>
@@ -7687,8 +8177,11 @@
       <c r="L140" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2.6526239075146072</v>
       </c>
@@ -7725,8 +8218,11 @@
       <c r="L141" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2.710780213267538</v>
       </c>
@@ -7763,8 +8259,11 @@
       <c r="L142" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.2009505972832164</v>
       </c>
@@ -7798,8 +8297,11 @@
       <c r="L143" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-0.81250294681238744</v>
       </c>
@@ -7833,8 +8335,11 @@
       <c r="L144" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>-0.49837424647225947</v>
       </c>
@@ -7868,8 +8373,11 @@
       <c r="L145" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>-1.1039191340225309</v>
       </c>
@@ -7903,8 +8411,11 @@
       <c r="L146" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>-1.1198408650099381</v>
       </c>
@@ -7938,8 +8449,11 @@
       <c r="L147" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2.0129003062163009</v>
       </c>
@@ -7976,8 +8490,11 @@
       <c r="L148" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2.5495798387279538</v>
       </c>
@@ -8014,8 +8531,11 @@
       <c r="L149" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>-1.223283594714623</v>
       </c>
@@ -8049,8 +8569,11 @@
       <c r="L150" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>-0.88489053960256214</v>
       </c>
@@ -8084,8 +8607,11 @@
       <c r="L151" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.49933913923732842</v>
       </c>
@@ -8119,8 +8645,11 @@
       <c r="L152" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>-1.4887182342838921</v>
       </c>
@@ -8154,8 +8683,11 @@
       <c r="L153" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>-0.43722700016165522</v>
       </c>
@@ -8189,8 +8721,11 @@
       <c r="L154" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.19911726707745611</v>
       </c>
@@ -8224,8 +8759,11 @@
       <c r="L155" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.4686390096074351</v>
       </c>
@@ -8259,8 +8797,11 @@
       <c r="L156" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>-0.7644177234310281</v>
       </c>
@@ -8294,8 +8835,11 @@
       <c r="L157" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>-1.074517955572463E-2</v>
       </c>
@@ -8329,8 +8873,11 @@
       <c r="L158" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2.9834421611492339E-2</v>
       </c>
@@ -8364,8 +8911,11 @@
       <c r="L159" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.204029776913069</v>
       </c>
@@ -8399,8 +8949,11 @@
       <c r="L160" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.41728234232394268</v>
       </c>
@@ -8434,8 +8987,11 @@
       <c r="L161" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>-1.3241976242931399</v>
       </c>
@@ -8469,8 +9025,11 @@
       <c r="L162" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>-1.0440481588784649</v>
       </c>
@@ -8504,8 +9063,11 @@
       <c r="L163" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>-0.42134640367687909</v>
       </c>
@@ -8539,8 +9101,11 @@
       <c r="L164" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>-1.0263221502070801</v>
       </c>
@@ -8574,8 +9139,11 @@
       <c r="L165" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>-1.2436268482624679</v>
       </c>
@@ -8609,8 +9177,11 @@
       <c r="L166" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>-0.9000281858698117</v>
       </c>
@@ -8644,8 +9215,11 @@
       <c r="L167" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>-0.43343691465727879</v>
       </c>
@@ -8679,8 +9253,11 @@
       <c r="L168" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.3154085707658959</v>
       </c>
@@ -8714,8 +9291,11 @@
       <c r="L169" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8.5559370351904779E-2</v>
       </c>
@@ -8749,8 +9329,11 @@
       <c r="L170" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>-0.46217156533710452</v>
       </c>
@@ -8784,8 +9367,11 @@
       <c r="L171" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.10744220637809181</v>
       </c>
@@ -8819,8 +9405,11 @@
       <c r="L172" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>-0.50818354123660847</v>
       </c>
@@ -8854,8 +9443,11 @@
       <c r="L173" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>-0.8887014266625457</v>
       </c>
@@ -8889,8 +9481,11 @@
       <c r="L174" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.60853508291920488</v>
       </c>
@@ -8924,8 +9519,11 @@
       <c r="L175" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.0702043488500741</v>
       </c>
@@ -8959,8 +9557,11 @@
       <c r="L176" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>-0.10311073437881629</v>
       </c>
@@ -8994,8 +9595,11 @@
       <c r="L177" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.47647448351302168</v>
       </c>
@@ -9029,8 +9633,11 @@
       <c r="L178" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.46865752463099758</v>
       </c>
@@ -9064,8 +9671,11 @@
       <c r="L179" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.1218391089999305</v>
       </c>
@@ -9099,8 +9709,11 @@
       <c r="L180" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-0.44750010698265358</v>
       </c>
@@ -9134,8 +9747,11 @@
       <c r="L181" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>-0.78301340708802858</v>
       </c>
@@ -9169,8 +9785,11 @@
       <c r="L182" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-0.72513899840425733</v>
       </c>
@@ -9204,8 +9823,11 @@
       <c r="L183" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-0.20422666275064461</v>
       </c>
@@ -9239,8 +9861,11 @@
       <c r="L184" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>-0.39272598162989492</v>
       </c>
@@ -9274,8 +9899,11 @@
       <c r="L185" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.450787774943298</v>
       </c>
@@ -9309,8 +9937,11 @@
       <c r="L186" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.1305920653936348</v>
       </c>
@@ -9344,8 +9975,11 @@
       <c r="L187" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>-0.45809165038309879</v>
       </c>
@@ -9379,8 +10013,11 @@
       <c r="L188" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>-1.390065340151097</v>
       </c>
@@ -9414,8 +10051,11 @@
       <c r="L189" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>-1.2207007506619361</v>
       </c>
@@ -9449,8 +10089,11 @@
       <c r="L190" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0.95522135629528948</v>
       </c>
@@ -9484,8 +10127,11 @@
       <c r="L191" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>-0.61366849588630223</v>
       </c>
@@ -9519,8 +10165,11 @@
       <c r="L192" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>-0.49488778808401601</v>
       </c>
@@ -9554,8 +10203,11 @@
       <c r="L193" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>-1.326582009615068</v>
       </c>
@@ -9589,8 +10241,11 @@
       <c r="L194" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>-1.0014104768058669</v>
       </c>
@@ -9624,8 +10279,11 @@
       <c r="L195" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.25899955716258238</v>
       </c>
@@ -9659,8 +10317,11 @@
       <c r="L196" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>-0.33827149029933118</v>
       </c>
@@ -9694,8 +10355,11 @@
       <c r="L197" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>-0.99762389201915525</v>
       </c>
@@ -9729,8 +10393,11 @@
       <c r="L198" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>-0.50879269811492522</v>
       </c>
@@ -9764,8 +10431,11 @@
       <c r="L199" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-0.50285853113178736</v>
       </c>
@@ -9799,8 +10469,11 @@
       <c r="L200" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>-1.1425803720156309</v>
       </c>
@@ -9834,8 +10507,11 @@
       <c r="L201" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>-1.0111296981734399</v>
       </c>
@@ -9869,8 +10545,11 @@
       <c r="L202" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>-0.46940776446640292</v>
       </c>
@@ -9904,8 +10583,11 @@
       <c r="L203" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>-0.202180570606841</v>
       </c>
@@ -9939,8 +10621,11 @@
       <c r="L204" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>-9.1508833269809867E-2</v>
       </c>
@@ -9974,8 +10659,11 @@
       <c r="L205" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3.527744688489606</v>
       </c>
@@ -10009,8 +10697,11 @@
       <c r="L206" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3.2852780866494511</v>
       </c>
@@ -10044,8 +10735,11 @@
       <c r="L207" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3.4075340223233601</v>
       </c>
@@ -10079,8 +10773,11 @@
       <c r="L208" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3.2878368434514469</v>
       </c>
@@ -10114,8 +10811,11 @@
       <c r="L209" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3.3664549510647381</v>
       </c>
@@ -10149,8 +10849,11 @@
       <c r="L210" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3.2292163433577841</v>
       </c>
@@ -10187,8 +10890,11 @@
       <c r="L211" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2.6503677087303341</v>
       </c>
@@ -10225,8 +10931,11 @@
       <c r="L212" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2.397702295026785</v>
       </c>
@@ -10263,8 +10972,11 @@
       <c r="L213" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2.4033122215917211</v>
       </c>
@@ -10301,8 +11013,11 @@
       <c r="L214" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1.7820814744400211</v>
       </c>
@@ -10336,8 +11051,11 @@
       <c r="L215" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>-0.71564375062810237</v>
       </c>
@@ -10371,8 +11089,11 @@
       <c r="L216" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>-0.38547515415931688</v>
       </c>
@@ -10406,8 +11127,11 @@
       <c r="L217" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0.12907596555103429</v>
       </c>
@@ -10441,8 +11165,11 @@
       <c r="L218" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-0.71277583958017421</v>
       </c>
@@ -10476,8 +11203,11 @@
       <c r="L219" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-0.52079581571745837</v>
       </c>
@@ -10511,8 +11241,11 @@
       <c r="L220" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-1.461401324694434</v>
       </c>
@@ -10546,8 +11279,11 @@
       <c r="L221" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-0.57020830781780107</v>
       </c>
@@ -10581,8 +11317,11 @@
       <c r="L222" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1.340493563396294</v>
       </c>
@@ -10616,8 +11355,11 @@
       <c r="L223" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2.6771158775936801E-2</v>
       </c>
@@ -10651,8 +11393,11 @@
       <c r="L224" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>-1.2868568921073209</v>
       </c>
@@ -10686,8 +11431,11 @@
       <c r="L225" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-0.60405510034249299</v>
       </c>
@@ -10721,8 +11469,11 @@
       <c r="L226" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1.734381499912532E-2</v>
       </c>
@@ -10756,8 +11507,11 @@
       <c r="L227" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-1.901010148081693</v>
       </c>
@@ -10791,8 +11545,11 @@
       <c r="L228" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-0.76347119123070784</v>
       </c>
@@ -10826,8 +11583,11 @@
       <c r="L229" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-0.62970006577725246</v>
       </c>
@@ -10861,8 +11621,11 @@
       <c r="L230" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-3.5928540879420642E-2</v>
       </c>
@@ -10896,8 +11659,11 @@
       <c r="L231" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1.8157518631269409</v>
       </c>
@@ -10931,8 +11697,11 @@
       <c r="L232" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2.7610716749043589</v>
       </c>
@@ -10969,8 +11738,11 @@
       <c r="L233" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3.5445526246328241</v>
       </c>
@@ -11004,8 +11776,11 @@
       <c r="L234" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1.215546413820672</v>
       </c>
@@ -11039,8 +11814,11 @@
       <c r="L235" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0.47263145879220952</v>
       </c>
@@ -11074,8 +11852,11 @@
       <c r="L236" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0.29646288627189937</v>
       </c>
@@ -11109,8 +11890,11 @@
       <c r="L237" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1.9490183709408511</v>
       </c>
@@ -11144,8 +11928,11 @@
       <c r="L238" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3.3620473691670449</v>
       </c>
@@ -11179,8 +11966,11 @@
       <c r="L239" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-0.1376079968287017</v>
       </c>
@@ -11214,8 +12004,11 @@
       <c r="L240" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.208860748621589</v>
       </c>
@@ -11249,8 +12042,11 @@
       <c r="L241" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2.530416690838392</v>
       </c>
@@ -11284,8 +12080,11 @@
       <c r="L242" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0.29197337399057161</v>
       </c>
@@ -11319,8 +12118,11 @@
       <c r="L243" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2.8211093587199638</v>
       </c>
@@ -11357,8 +12159,11 @@
       <c r="L244" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-0.93103283542048898</v>
       </c>
@@ -11392,8 +12197,11 @@
       <c r="L245" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-0.80270111671434863</v>
       </c>
@@ -11427,8 +12235,11 @@
       <c r="L246" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-0.55759201663567359</v>
       </c>
@@ -11462,8 +12273,11 @@
       <c r="L247" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-4.2880219637155263E-2</v>
       </c>
@@ -11497,8 +12311,11 @@
       <c r="L248" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-0.50814929106499085</v>
       </c>
@@ -11532,8 +12349,11 @@
       <c r="L249" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.2180152320805577</v>
       </c>
@@ -11567,8 +12387,11 @@
       <c r="L250" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.35826154487271611</v>
       </c>
@@ -11602,8 +12425,11 @@
       <c r="L251" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0.89684907699933192</v>
       </c>
@@ -11637,8 +12463,11 @@
       <c r="L252" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-0.30515214615358821</v>
       </c>
@@ -11672,8 +12501,11 @@
       <c r="L253" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0.42029194932052061</v>
       </c>
@@ -11707,8 +12539,11 @@
       <c r="L254" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-1.090886187861879</v>
       </c>
@@ -11742,8 +12577,11 @@
       <c r="L255" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-0.2721438121211186</v>
       </c>
@@ -11777,8 +12615,11 @@
       <c r="L256" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-0.58273437861072941</v>
       </c>
@@ -11812,8 +12653,11 @@
       <c r="L257" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-0.57771964011654564</v>
       </c>
@@ -11847,8 +12691,11 @@
       <c r="L258" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-0.72168488053190194</v>
       </c>
@@ -11882,8 +12729,11 @@
       <c r="L259" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-0.38584626804561578</v>
       </c>
@@ -11917,8 +12767,11 @@
       <c r="L260" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-0.27486395575339312</v>
       </c>
@@ -11952,8 +12805,11 @@
       <c r="L261" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-0.43858781512649658</v>
       </c>
@@ -11987,8 +12843,11 @@
       <c r="L262" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-0.61864227357658175</v>
       </c>
@@ -12022,8 +12881,11 @@
       <c r="L263" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-0.33840064042378593</v>
       </c>
@@ -12057,8 +12919,11 @@
       <c r="L264" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-0.4996689907238992</v>
       </c>
@@ -12092,8 +12957,11 @@
       <c r="L265" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-0.71270238358194182</v>
       </c>
@@ -12127,8 +12995,11 @@
       <c r="L266" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2.5236898649902698E-2</v>
       </c>
@@ -12162,8 +13033,11 @@
       <c r="L267" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-0.24771818401457349</v>
       </c>
@@ -12197,8 +13071,11 @@
       <c r="L268" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0.85145908245413804</v>
       </c>
@@ -12232,8 +13109,11 @@
       <c r="L269" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1.2510997993419419</v>
       </c>
@@ -12267,8 +13147,11 @@
       <c r="L270" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-0.783717334181952</v>
       </c>
@@ -12302,8 +13185,11 @@
       <c r="L271" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-1.003309403574584</v>
       </c>
@@ -12337,8 +13223,11 @@
       <c r="L272" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-0.67516094397789161</v>
       </c>
@@ -12372,8 +13261,11 @@
       <c r="L273" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-1.0409504670268901</v>
       </c>
@@ -12407,8 +13299,11 @@
       <c r="L274" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-0.50332749365972806</v>
       </c>
@@ -12442,8 +13337,11 @@
       <c r="L275" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-1.019127488429818</v>
       </c>
@@ -12477,8 +13375,11 @@
       <c r="L276" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-1.0594410812308039</v>
       </c>
@@ -12512,8 +13413,11 @@
       <c r="L277" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-1.015191601621739</v>
       </c>
@@ -12547,8 +13451,11 @@
       <c r="L278" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.44660255098441409</v>
       </c>
@@ -12582,8 +13489,11 @@
       <c r="L279" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.79404774941334866</v>
       </c>
@@ -12617,8 +13527,11 @@
       <c r="L280" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-8.1203699043699271E-2</v>
       </c>
@@ -12652,8 +13565,11 @@
       <c r="L281" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-0.13784219433775249</v>
       </c>
@@ -12687,8 +13603,11 @@
       <c r="L282" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0.91121994599511813</v>
       </c>
@@ -12722,8 +13641,11 @@
       <c r="L283" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.1253812165795001</v>
       </c>
@@ -12760,8 +13682,11 @@
       <c r="L284" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3.4867320249203191</v>
       </c>
@@ -12795,8 +13720,11 @@
       <c r="L285" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.6908145270219008</v>
       </c>
@@ -12830,8 +13758,11 @@
       <c r="L286" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.8603461079942341</v>
       </c>
@@ -12865,8 +13796,11 @@
       <c r="L287" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3.693289111478252</v>
       </c>
@@ -12903,8 +13837,11 @@
       <c r="L288" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3.3232936889364439</v>
       </c>
@@ -12941,8 +13878,11 @@
       <c r="L289" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3.6397126447231689</v>
       </c>
@@ -12979,8 +13919,11 @@
       <c r="L290" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3.7250739646292188</v>
       </c>
@@ -13017,8 +13960,11 @@
       <c r="L291" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-0.34509734822384591</v>
       </c>
@@ -13052,8 +13998,11 @@
       <c r="L292" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-0.96388305315561251</v>
       </c>
@@ -13087,8 +14036,11 @@
       <c r="L293" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-0.95228068953300926</v>
       </c>
@@ -13122,8 +14074,11 @@
       <c r="L294" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-0.83767483834418943</v>
       </c>
@@ -13157,8 +14112,11 @@
       <c r="L295" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.26579408505586588</v>
       </c>
@@ -13192,8 +14150,11 @@
       <c r="L296" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>-0.35834143537568458</v>
       </c>
@@ -13227,8 +14188,11 @@
       <c r="L297" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-0.78284466211396586</v>
       </c>
@@ -13262,8 +14226,11 @@
       <c r="L298" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-0.38979256289252689</v>
       </c>
@@ -13297,8 +14264,11 @@
       <c r="L299" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-0.53886631129161766</v>
       </c>
@@ -13332,8 +14302,11 @@
       <c r="L300" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-0.88842994805019115</v>
       </c>
@@ -13367,8 +14340,11 @@
       <c r="L301" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.47367883110327391</v>
       </c>
@@ -13402,8 +14378,11 @@
       <c r="L302" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.59095963410401342</v>
       </c>
@@ -13437,8 +14416,11 @@
       <c r="L303" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>-0.19415492535185841</v>
       </c>
@@ -13472,8 +14454,11 @@
       <c r="L304" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-0.89305326998046497</v>
       </c>
@@ -13507,8 +14492,11 @@
       <c r="L305" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-0.3974349646868533</v>
       </c>
@@ -13542,8 +14530,11 @@
       <c r="L306" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-0.26611374883814221</v>
       </c>
@@ -13577,8 +14568,11 @@
       <c r="L307" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-0.59776558140795821</v>
       </c>
@@ -13612,8 +14606,11 @@
       <c r="L308" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1.114240206672459</v>
       </c>
@@ -13647,8 +14644,11 @@
       <c r="L309" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-0.84733784362175402</v>
       </c>
@@ -13682,8 +14682,11 @@
       <c r="L310" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0.50506442916009953</v>
       </c>
@@ -13717,8 +14720,11 @@
       <c r="L311" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2.3849446090460469</v>
       </c>
@@ -13755,8 +14761,11 @@
       <c r="L312" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-0.82918106952125947</v>
       </c>
@@ -13790,8 +14799,11 @@
       <c r="L313" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0.2219358779589708</v>
       </c>
@@ -13825,8 +14837,11 @@
       <c r="L314" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.5867927014062349</v>
       </c>
@@ -13863,8 +14878,11 @@
       <c r="L315" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-0.78167508006911612</v>
       </c>
@@ -13898,8 +14916,11 @@
       <c r="L316" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1.0915471759637969</v>
       </c>
@@ -13933,8 +14954,11 @@
       <c r="L317" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1.351729952144044</v>
       </c>
@@ -13968,8 +14992,11 @@
       <c r="L318" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1.257005115881944</v>
       </c>
@@ -14003,8 +15030,11 @@
       <c r="L319" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1.8105686079383281</v>
       </c>
@@ -14038,8 +15068,11 @@
       <c r="L320" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0.70710780605209944</v>
       </c>
@@ -14073,8 +15106,11 @@
       <c r="L321" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3.9760626522010458</v>
       </c>
@@ -14111,8 +15147,11 @@
       <c r="L322" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4.7672052223042591</v>
       </c>
@@ -14149,8 +15188,11 @@
       <c r="L323" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.370365270555169</v>
       </c>
@@ -14187,8 +15229,11 @@
       <c r="L324" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4.4809406717009947</v>
       </c>
@@ -14225,8 +15270,11 @@
       <c r="L325" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5302238497901977</v>
       </c>
@@ -14263,8 +15311,11 @@
       <c r="L326" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-0.8844688451443552</v>
       </c>
@@ -14298,8 +15349,11 @@
       <c r="L327" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-0.57738310525494452</v>
       </c>
@@ -14333,8 +15387,11 @@
       <c r="L328" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0.23921081551559031</v>
       </c>
@@ -14368,8 +15425,11 @@
       <c r="L329" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0.84931709640288366</v>
       </c>
@@ -14403,8 +15463,11 @@
       <c r="L330" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1.959221566308466</v>
       </c>
@@ -14441,8 +15504,11 @@
       <c r="L331" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2.1919377572352912</v>
       </c>
@@ -14479,8 +15545,11 @@
       <c r="L332" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-0.1386165976509986</v>
       </c>
@@ -14514,8 +15583,11 @@
       <c r="L333" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1.3394474729182579</v>
       </c>
@@ -14549,8 +15621,11 @@
       <c r="L334" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0.62490812964787112</v>
       </c>
@@ -14584,8 +15659,11 @@
       <c r="L335" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-0.60063764225913152</v>
       </c>
@@ -14619,8 +15697,11 @@
       <c r="L336" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5.2478551422836729E-2</v>
       </c>
@@ -14654,8 +15735,11 @@
       <c r="L337" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0.28820363992055842</v>
       </c>
@@ -14689,8 +15773,11 @@
       <c r="L338" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.42565777148476802</v>
       </c>
@@ -14724,8 +15811,11 @@
       <c r="L339" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1.70968896202664</v>
       </c>
@@ -14759,8 +15849,11 @@
       <c r="L340" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>-0.66931448116217518</v>
       </c>
@@ -14794,8 +15887,11 @@
       <c r="L341" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>-5.236724072891466E-2</v>
       </c>
@@ -14829,8 +15925,11 @@
       <c r="L342" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>-0.92704870278254414</v>
       </c>
@@ -14864,8 +15963,11 @@
       <c r="L343" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>-0.79378077975812966</v>
       </c>
@@ -14899,8 +16001,11 @@
       <c r="L344" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>-1.2667770106434371</v>
       </c>
@@ -14934,8 +16039,11 @@
       <c r="L345" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>-0.41512511950309378</v>
       </c>
@@ -14969,8 +16077,11 @@
       <c r="L346" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>-7.4338163674072574E-2</v>
       </c>
@@ -15004,8 +16115,11 @@
       <c r="L347" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>-0.23539766361496811</v>
       </c>
@@ -15039,8 +16153,11 @@
       <c r="L348" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>-1.065815639769649</v>
       </c>
@@ -15074,8 +16191,11 @@
       <c r="L349" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0.34237635332699201</v>
       </c>
@@ -15109,8 +16229,11 @@
       <c r="L350" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3.5040300558569428</v>
       </c>
@@ -15147,8 +16270,11 @@
       <c r="L351" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0.65896013178891633</v>
       </c>
@@ -15182,8 +16308,11 @@
       <c r="L352" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1.3655098296920221</v>
       </c>
@@ -15217,8 +16346,11 @@
       <c r="L353" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.33892466850053349</v>
       </c>
@@ -15252,8 +16384,11 @@
       <c r="L354" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-1.0163213913330931</v>
       </c>
@@ -15287,8 +16422,11 @@
       <c r="L355" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-0.2260499032523991</v>
       </c>
@@ -15322,8 +16460,11 @@
       <c r="L356" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>-1.1211770423726131</v>
       </c>
@@ -15357,8 +16498,11 @@
       <c r="L357" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0.69150546155551051</v>
       </c>
@@ -15392,8 +16536,11 @@
       <c r="L358" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-0.47829398915608351</v>
       </c>
@@ -15427,8 +16574,11 @@
       <c r="L359" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>-0.68412470805072811</v>
       </c>
@@ -15462,8 +16612,11 @@
       <c r="L360" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>-1.0639875290552321</v>
       </c>
@@ -15497,8 +16650,11 @@
       <c r="L361" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>-1.0303895411383659</v>
       </c>
@@ -15532,8 +16688,11 @@
       <c r="L362" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>-1.333555289049015</v>
       </c>
@@ -15567,8 +16726,11 @@
       <c r="L363" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>-0.59827543387407023</v>
       </c>
@@ -15602,8 +16764,11 @@
       <c r="L364" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>-0.1721947976308715</v>
       </c>
@@ -15637,8 +16802,11 @@
       <c r="L365" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0.26417453453370349</v>
       </c>
@@ -15672,8 +16840,11 @@
       <c r="L366" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3.1634159505921211</v>
       </c>
@@ -15710,8 +16881,11 @@
       <c r="L367" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1.145229375113759</v>
       </c>
@@ -15745,8 +16919,11 @@
       <c r="L368" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>-1.0976063454359379</v>
       </c>
@@ -15780,8 +16957,11 @@
       <c r="L369" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>-0.57355064913339637</v>
       </c>
@@ -15815,8 +16995,11 @@
       <c r="L370" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-1.3227364645309549</v>
       </c>
@@ -15850,8 +17033,11 @@
       <c r="L371" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.20087131047794449</v>
       </c>
@@ -15885,8 +17071,11 @@
       <c r="L372" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0.48107700925994401</v>
       </c>
@@ -15920,8 +17109,11 @@
       <c r="L373" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.85572718026136774</v>
       </c>
@@ -15955,8 +17147,11 @@
       <c r="L374" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.33657290620899272</v>
       </c>
@@ -15990,8 +17185,11 @@
       <c r="L375" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>-0.77545377236546542</v>
       </c>
@@ -16025,8 +17223,11 @@
       <c r="L376" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-1.2758532266584319</v>
       </c>
@@ -16060,8 +17261,11 @@
       <c r="L377" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-1.0486875931043169</v>
       </c>
@@ -16095,8 +17299,11 @@
       <c r="L378" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>-1.3267444907946619</v>
       </c>
@@ -16130,8 +17337,11 @@
       <c r="L379" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-0.49083068078787617</v>
       </c>
@@ -16165,8 +17375,11 @@
       <c r="L380" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>-0.66494690555655422</v>
       </c>
@@ -16200,8 +17413,11 @@
       <c r="L381" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>-1.0301632966833141</v>
       </c>
@@ -16235,8 +17451,11 @@
       <c r="L382" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-1.0506953109234769</v>
       </c>
@@ -16270,8 +17489,11 @@
       <c r="L383" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>-0.43054775611891222</v>
       </c>
@@ -16305,8 +17527,11 @@
       <c r="L384" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>-0.17699391217312019</v>
       </c>
@@ -16340,8 +17565,11 @@
       <c r="L385" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0.11648389838587379</v>
       </c>
@@ -16375,8 +17603,11 @@
       <c r="L386" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>-0.49465137882944987</v>
       </c>
@@ -16410,8 +17641,11 @@
       <c r="L387" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-0.16243381492442041</v>
       </c>
@@ -16445,8 +17679,11 @@
       <c r="L388" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0.81043602859771924</v>
       </c>
@@ -16480,8 +17717,11 @@
       <c r="L389" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1.698844933444162</v>
       </c>
@@ -16515,8 +17755,11 @@
       <c r="L390" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-0.83145972891033859</v>
       </c>
@@ -16550,8 +17793,11 @@
       <c r="L391" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>-1.6356258244492518E-2</v>
       </c>
@@ -16585,8 +17831,11 @@
       <c r="L392" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>8.2243792697125326E-2</v>
       </c>
@@ -16620,8 +17869,11 @@
       <c r="L393" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>-0.89541918851609059</v>
       </c>
@@ -16655,8 +17907,11 @@
       <c r="L394" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>-0.75003888850870071</v>
       </c>
@@ -16690,8 +17945,11 @@
       <c r="L395" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0.2160435960165738</v>
       </c>
@@ -16725,8 +17983,11 @@
       <c r="L396" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>-0.81501048873224469</v>
       </c>
@@ -16760,8 +18021,11 @@
       <c r="L397" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>-0.43307963231560609</v>
       </c>
@@ -16795,8 +18059,11 @@
       <c r="L398" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>8.0375066408642143E-2</v>
       </c>
@@ -16830,8 +18097,11 @@
       <c r="L399" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>-1.083905466734707</v>
       </c>
@@ -16865,8 +18135,11 @@
       <c r="L400" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>-0.64453606229719629</v>
       </c>
@@ -16900,8 +18173,11 @@
       <c r="L401" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>-0.4040041614491619</v>
       </c>
@@ -16935,8 +18211,11 @@
       <c r="L402" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1.1559244784717241E-2</v>
       </c>
@@ -16970,8 +18249,11 @@
       <c r="L403" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>8.0375066408642393E-2</v>
       </c>
@@ -17005,8 +18287,11 @@
       <c r="L404" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0.29225248542052851</v>
       </c>
@@ -17040,8 +18325,11 @@
       <c r="L405" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>-0.49525744578729453</v>
       </c>
@@ -17075,8 +18363,11 @@
       <c r="L406" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>-0.25888281281402931</v>
       </c>
@@ -17110,8 +18401,11 @@
       <c r="L407" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>-0.2392973107752249</v>
       </c>
@@ -17145,8 +18439,11 @@
       <c r="L408" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>-0.42632360159431099</v>
       </c>
@@ -17180,8 +18477,11 @@
       <c r="L409" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>-7.4120434672677142E-3</v>
       </c>
@@ -17215,8 +18515,11 @@
       <c r="L410" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>-0.1276970898629938</v>
       </c>
@@ -17250,8 +18553,11 @@
       <c r="L411" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>-0.91505075116495771</v>
       </c>
@@ -17285,8 +18591,11 @@
       <c r="L412" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0.27166040631156468</v>
       </c>
@@ -17320,8 +18629,11 @@
       <c r="L413" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>-5.8117532654760598E-3</v>
       </c>
@@ -17355,8 +18667,11 @@
       <c r="L414" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>-1.417774970231934</v>
       </c>
@@ -17390,8 +18705,11 @@
       <c r="L415" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>-1.304446887102428</v>
       </c>
@@ -17425,8 +18743,11 @@
       <c r="L416" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M416" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>-1.265463258040868</v>
       </c>
@@ -17460,8 +18781,11 @@
       <c r="L417" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M417" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>-0.70173890349416856</v>
       </c>
@@ -17495,8 +18819,11 @@
       <c r="L418" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M418" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>-0.83431245901179274</v>
       </c>
@@ -17530,8 +18857,11 @@
       <c r="L419" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M419" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>-0.84187991450516053</v>
       </c>
@@ -17565,8 +18895,11 @@
       <c r="L420" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M420" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>-0.96431095857036531</v>
       </c>
@@ -17600,8 +18933,11 @@
       <c r="L421" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M421" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>-0.78070344768729527</v>
       </c>
@@ -17635,8 +18971,11 @@
       <c r="L422" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M422" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>-0.89301067946218049</v>
       </c>
@@ -17670,8 +19009,11 @@
       <c r="L423" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M423" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>-1.174546972555105</v>
       </c>
@@ -17705,8 +19047,11 @@
       <c r="L424" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>-1.2033061277420889</v>
       </c>
@@ -17740,8 +19085,11 @@
       <c r="L425" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>-0.55186862311888085</v>
       </c>
@@ -17775,8 +19123,11 @@
       <c r="L426" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M426" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0.2350000201424719</v>
       </c>
@@ -17810,8 +19161,11 @@
       <c r="L427" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M427" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0.89964093941673873</v>
       </c>
@@ -17845,8 +19199,11 @@
       <c r="L428" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M428" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0.84835981261466775</v>
       </c>
@@ -17880,8 +19237,11 @@
       <c r="L429" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M429" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0.29144152134449519</v>
       </c>
@@ -17915,8 +19275,11 @@
       <c r="L430" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>-0.49030976176299951</v>
       </c>
@@ -17950,8 +19313,11 @@
       <c r="L431" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M431" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>-1.327023814251868</v>
       </c>
@@ -17985,8 +19351,11 @@
       <c r="L432" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M432" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0.21552049647546831</v>
       </c>
@@ -18020,8 +19389,11 @@
       <c r="L433" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M433" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0.17092781558012549</v>
       </c>
@@ -18055,8 +19427,11 @@
       <c r="L434" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M434" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>-0.95058718183390634</v>
       </c>
@@ -18090,8 +19465,11 @@
       <c r="L435" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M435" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>-0.61379574460474084</v>
       </c>
@@ -18125,8 +19503,11 @@
       <c r="L436" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M436" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>6.6298545297752004E-2</v>
       </c>
@@ -18160,8 +19541,11 @@
       <c r="L437" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0.61022837895463444</v>
       </c>
@@ -18195,8 +19579,11 @@
       <c r="L438" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M438" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0.61798876905728994</v>
       </c>
@@ -18230,8 +19617,11 @@
       <c r="L439" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M439" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>-0.33300501427985302</v>
       </c>
@@ -18265,8 +19655,11 @@
       <c r="L440" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M440" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0.187790014900832</v>
       </c>
@@ -18300,8 +19693,11 @@
       <c r="L441" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M441" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>-0.64719910918080059</v>
       </c>
@@ -18335,8 +19731,11 @@
       <c r="L442" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M442" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>0.22717783583682241</v>
       </c>
@@ -18370,8 +19769,11 @@
       <c r="L443" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M443" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>-1.254193530305175</v>
       </c>
@@ -18405,8 +19807,11 @@
       <c r="L444" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M444" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1.4116740159031129</v>
       </c>
@@ -18440,8 +19845,11 @@
       <c r="L445" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M445" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>-1.180066499778937</v>
       </c>
@@ -18475,8 +19883,11 @@
       <c r="L446" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M446" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>-0.4348649018074624</v>
       </c>
@@ -18510,8 +19921,11 @@
       <c r="L447" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M447" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>-0.222476709297804</v>
       </c>
@@ -18545,8 +19959,11 @@
       <c r="L448" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M448" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7.8149524211954452E-2</v>
       </c>
@@ -18580,8 +19997,11 @@
       <c r="L449" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M449" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>-0.55006251087011282</v>
       </c>
@@ -18615,8 +20035,11 @@
       <c r="L450" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M450" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0.47855040773132129</v>
       </c>
@@ -18650,8 +20073,11 @@
       <c r="L451" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>-1.138285435215546</v>
       </c>
@@ -18685,8 +20111,11 @@
       <c r="L452" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M452" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0.24654873454431961</v>
       </c>
@@ -18720,8 +20149,11 @@
       <c r="L453" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M453" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>-0.1211149720436745</v>
       </c>
@@ -18755,8 +20187,11 @@
       <c r="L454" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M454" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>-1.5495696433084329</v>
       </c>
@@ -18790,8 +20225,11 @@
       <c r="L455" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M455" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>0.63063563547386092</v>
       </c>
@@ -18825,8 +20263,11 @@
       <c r="L456" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M456" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>-0.52927703516639124</v>
       </c>
@@ -18860,8 +20301,11 @@
       <c r="L457" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M457" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>-0.84946376150264102</v>
       </c>
@@ -18895,8 +20339,11 @@
       <c r="L458" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M458" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0.43123664968248931</v>
       </c>
@@ -18930,8 +20377,11 @@
       <c r="L459" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M459" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>-0.49739478900757961</v>
       </c>
@@ -18965,8 +20415,11 @@
       <c r="L460" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M460" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>-0.77265771715802523</v>
       </c>
@@ -19000,8 +20453,11 @@
       <c r="L461" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M461" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>-8.9615997621572019E-2</v>
       </c>
@@ -19035,8 +20491,11 @@
       <c r="L462" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M462" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>0.96704732222589163</v>
       </c>
@@ -19070,8 +20529,11 @@
       <c r="L463" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M463" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>-0.33597238773249871</v>
       </c>
@@ -19105,8 +20567,11 @@
       <c r="L464" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M464" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>0.97226910949675238</v>
       </c>
@@ -19140,8 +20605,11 @@
       <c r="L465" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M465" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.532942817051155</v>
       </c>
@@ -19175,8 +20643,11 @@
       <c r="L466" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M466" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>-0.1215155665854071</v>
       </c>
@@ -19210,8 +20681,11 @@
       <c r="L467" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M467" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>-0.46777241233011913</v>
       </c>
@@ -19245,8 +20719,11 @@
       <c r="L468" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M468" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0.14278796427547771</v>
       </c>
@@ -19280,8 +20757,11 @@
       <c r="L469" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M469" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>-0.42329877940034721</v>
       </c>
@@ -19315,8 +20795,11 @@
       <c r="L470" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M470" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>0.6050065293274659</v>
       </c>
@@ -19350,8 +20833,11 @@
       <c r="L471" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M471" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1.92629913484621</v>
       </c>
@@ -19385,8 +20871,11 @@
       <c r="L472" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M472" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2.8858436473049491</v>
       </c>
@@ -19420,8 +20909,11 @@
       <c r="L473" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M473" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2.9124601389595579</v>
       </c>
@@ -19455,8 +20947,11 @@
       <c r="L474" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M474" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0.51654737807572437</v>
       </c>
@@ -19490,8 +20985,11 @@
       <c r="L475" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M475" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>0.4848568127494553</v>
       </c>
@@ -19525,8 +21023,11 @@
       <c r="L476" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M476" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1.013254624969306</v>
       </c>
@@ -19560,8 +21061,11 @@
       <c r="L477" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M477" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2.2054056886836682</v>
       </c>
@@ -19595,8 +21099,11 @@
       <c r="L478" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M478" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1.1605358763121769</v>
       </c>
@@ -19630,8 +21137,11 @@
       <c r="L479" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M479" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>0.90550334338976435</v>
       </c>
@@ -19665,8 +21175,11 @@
       <c r="L480" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M480" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>0.90651829405886142</v>
       </c>
@@ -19700,8 +21213,11 @@
       <c r="L481" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M481" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1.8741842229360459</v>
       </c>
@@ -19738,8 +21254,11 @@
       <c r="L482" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M482" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>-0.61006646677991061</v>
       </c>
@@ -19773,8 +21292,11 @@
       <c r="L483" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M483" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>-0.24089430279858101</v>
       </c>
@@ -19808,8 +21330,11 @@
       <c r="L484" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M484" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>-0.70495475280473752</v>
       </c>
@@ -19843,8 +21368,11 @@
       <c r="L485" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M485" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>-0.76632302643390715</v>
       </c>
@@ -19878,8 +21406,11 @@
       <c r="L486" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M486" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>-0.66875741676310918</v>
       </c>
@@ -19913,8 +21444,11 @@
       <c r="L487" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M487" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>-0.58217181794683392</v>
       </c>
@@ -19948,8 +21482,11 @@
       <c r="L488" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M488" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>-0.71393096648474474</v>
       </c>
@@ -19983,8 +21520,11 @@
       <c r="L489" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M489" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>-0.36820739374487499</v>
       </c>
@@ -20018,8 +21558,11 @@
       <c r="L490" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M490" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>-0.74977402350924038</v>
       </c>
@@ -20053,8 +21596,11 @@
       <c r="L491" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M491" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>-1.008524660081058</v>
       </c>
@@ -20088,8 +21634,11 @@
       <c r="L492" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M492" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>-0.89299744207602261</v>
       </c>
@@ -20123,8 +21672,11 @@
       <c r="L493" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M493" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>-0.64763794678881925</v>
       </c>
@@ -20158,8 +21710,11 @@
       <c r="L494" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M494" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>-0.27904771734948441</v>
       </c>
@@ -20193,8 +21748,11 @@
       <c r="L495" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M495" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2.0147397181171929</v>
       </c>
@@ -20231,8 +21789,11 @@
       <c r="L496" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M496" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1.2715686541130009</v>
       </c>
@@ -20266,8 +21827,11 @@
       <c r="L497" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M497" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>-1.1980997974536109</v>
       </c>
@@ -20301,8 +21865,11 @@
       <c r="L498" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M498" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3.7649897509676851E-2</v>
       </c>
@@ -20336,8 +21903,11 @@
       <c r="L499" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M499" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>-0.27821959959412412</v>
       </c>
@@ -20371,8 +21941,11 @@
       <c r="L500" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M500" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>-0.14111143581156471</v>
       </c>
@@ -20406,8 +21979,11 @@
       <c r="L501" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M501" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>-0.56837910104152078</v>
       </c>
@@ -20441,8 +22017,11 @@
       <c r="L502" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M502" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>0.2634193928486982</v>
       </c>
@@ -20476,8 +22055,11 @@
       <c r="L503" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M503" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>-0.37079266722980259</v>
       </c>
@@ -20511,8 +22093,11 @@
       <c r="L504" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M504" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>-0.37427750697341661</v>
       </c>
@@ -20546,8 +22131,11 @@
       <c r="L505" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M505" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>0.26219783707826172</v>
       </c>
@@ -20581,8 +22169,11 @@
       <c r="L506" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M506" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>-0.40398288033429802</v>
       </c>
@@ -20616,8 +22207,11 @@
       <c r="L507" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M507" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>0.48368124700637238</v>
       </c>
@@ -20651,8 +22245,11 @@
       <c r="L508" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M508" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>0.47400727463388931</v>
       </c>
@@ -20686,8 +22283,11 @@
       <c r="L509" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M509" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>0.59657167538039024</v>
       </c>
@@ -20721,8 +22321,11 @@
       <c r="L510" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M510" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>0.53115365034041628</v>
       </c>
@@ -20756,8 +22359,11 @@
       <c r="L511" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M511" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>-0.85595843614043599</v>
       </c>
@@ -20791,8 +22397,11 @@
       <c r="L512" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M512" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>-0.37166726409836021</v>
       </c>
@@ -20826,8 +22435,11 @@
       <c r="L513" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M513" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1.4212095682094139</v>
       </c>
@@ -20861,8 +22473,11 @@
       <c r="L514" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M514" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>4.5442523461864462E-2</v>
       </c>
@@ -20896,8 +22511,11 @@
       <c r="L515" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M515" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>-3.0243148742887482E-2</v>
       </c>
@@ -20931,8 +22549,11 @@
       <c r="L516" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M516" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2.071508863310571E-2</v>
       </c>
@@ -20966,8 +22587,11 @@
       <c r="L517" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M517" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>1.5593555493855771E-2</v>
       </c>
@@ -21001,8 +22625,11 @@
       <c r="L518" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M518" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.6241210630408917E-2</v>
       </c>
@@ -21036,8 +22663,11 @@
       <c r="L519" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M519" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>-0.80690433793853311</v>
       </c>
@@ -21071,8 +22701,11 @@
       <c r="L520" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M520" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>-0.37363740887782992</v>
       </c>
@@ -21106,8 +22739,11 @@
       <c r="L521" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M521" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>-0.14943098481849049</v>
       </c>
@@ -21141,8 +22777,11 @@
       <c r="L522" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M522" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>-0.1990252331359402</v>
       </c>
@@ -21176,8 +22815,11 @@
       <c r="L523" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M523" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1.0021001057638271E-2</v>
       </c>
@@ -21211,8 +22853,11 @@
       <c r="L524" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M524" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>-1.5377194129367071</v>
       </c>
@@ -21246,8 +22891,11 @@
       <c r="L525" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M525" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>-1.076844616069123E-2</v>
       </c>
@@ -21281,8 +22929,11 @@
       <c r="L526" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M526" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>0.4971073908615668</v>
       </c>
@@ -21316,8 +22967,11 @@
       <c r="L527" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M527" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5.9918287364486303E-2</v>
       </c>
@@ -21351,8 +23005,11 @@
       <c r="L528" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M528" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>0.50672320120889891</v>
       </c>
@@ -21386,8 +23043,11 @@
       <c r="L529" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M529" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>0.32724229389390802</v>
       </c>
@@ -21421,8 +23081,11 @@
       <c r="L530" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M530" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>-0.54670242454233209</v>
       </c>
@@ -21456,8 +23119,11 @@
       <c r="L531" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M531" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>-0.49337998285254347</v>
       </c>
@@ -21491,8 +23157,11 @@
       <c r="L532" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M532" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>-0.35135769360029617</v>
       </c>
@@ -21526,8 +23195,11 @@
       <c r="L533" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M533" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>-0.39476616912729268</v>
       </c>
@@ -21561,8 +23233,11 @@
       <c r="L534" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M534" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>-6.275694170052612E-2</v>
       </c>
@@ -21596,8 +23271,11 @@
       <c r="L535" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M535" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0.1209093320421251</v>
       </c>
@@ -21631,8 +23309,11 @@
       <c r="L536" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M536" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>-1.076641809296446</v>
       </c>
@@ -21666,8 +23347,11 @@
       <c r="L537" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M537" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>-0.88731504111115989</v>
       </c>
@@ -21701,8 +23385,11 @@
       <c r="L538" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M538" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>-0.73665259071893774</v>
       </c>
@@ -21736,8 +23423,11 @@
       <c r="L539" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M539" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>-0.69520231309939473</v>
       </c>
@@ -21771,8 +23461,11 @@
       <c r="L540" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M540" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>-0.89434098089270031</v>
       </c>
@@ -21806,8 +23499,11 @@
       <c r="L541" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M541" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>-0.75162617881789029</v>
       </c>
@@ -21841,8 +23537,11 @@
       <c r="L542" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M542" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>-1.3208416812584971</v>
       </c>
@@ -21876,8 +23575,11 @@
       <c r="L543" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M543" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>-0.80915744645007504</v>
       </c>
@@ -21911,8 +23613,11 @@
       <c r="L544" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M544" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>-0.37453925459093951</v>
       </c>
@@ -21946,8 +23651,11 @@
       <c r="L545" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M545" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>-0.54358147517857935</v>
       </c>
@@ -21981,8 +23689,11 @@
       <c r="L546" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M546" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>-0.92910298992341844</v>
       </c>
@@ -22016,8 +23727,11 @@
       <c r="L547" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M547" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>-0.59598999195161895</v>
       </c>
@@ -22051,8 +23765,11 @@
       <c r="L548" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M548" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>-1.417197374736261</v>
       </c>
@@ -22086,8 +23803,11 @@
       <c r="L549" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M549" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>-1.5290132258966309</v>
       </c>
@@ -22121,8 +23841,11 @@
       <c r="L550" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M550" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>-0.79795087756698069</v>
       </c>
@@ -22156,8 +23879,11 @@
       <c r="L551" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M551" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>-1.1912883344966749</v>
       </c>
@@ -22191,8 +23917,11 @@
       <c r="L552" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M552" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>0.3510029634014471</v>
       </c>
@@ -22226,8 +23955,11 @@
       <c r="L553" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M553" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>-6.2811457755686598E-2</v>
       </c>
@@ -22261,8 +23993,11 @@
       <c r="L554" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M554" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>-0.67174750083788903</v>
       </c>
@@ -22296,8 +24031,11 @@
       <c r="L555" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M555" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>0.44347583905251431</v>
       </c>
@@ -22331,8 +24069,11 @@
       <c r="L556" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M556" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>0.94343013586035296</v>
       </c>
@@ -22366,8 +24107,11 @@
       <c r="L557" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M557" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>-0.2377358214651131</v>
       </c>
@@ -22401,8 +24145,11 @@
       <c r="L558" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M558" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>-1.1990936627043549</v>
       </c>
@@ -22436,8 +24183,11 @@
       <c r="L559" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M559" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>-0.18914658384233499</v>
       </c>
@@ -22471,8 +24221,11 @@
       <c r="L560" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M560" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>-6.8568273544705113E-3</v>
       </c>
@@ -22506,8 +24259,11 @@
       <c r="L561" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M561" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>-0.91100194426008585</v>
       </c>
@@ -22541,8 +24297,12 @@
       <c r="L562" t="s">
         <v>772</v>
       </c>
+      <c r="M562" t="s">
+        <v>775</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/influence.xlsx
+++ b/data/influence.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/DissAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_AFC0BCCA8F79A8D366075C52F37BD2728A44EEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{004AB5C9-8CB0-4E85-B5CF-D37D31CED81C}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_AFC0BCCA8F79A8D366075C52F37BD2728A44EEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D825EE-80B6-4F61-9B82-A6F9A3CA9636}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="774">
   <si>
     <t>rstudent</t>
   </si>
@@ -2352,60 +2352,6 @@
   </si>
   <si>
     <t>561</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>water depth 8 cm</t>
-  </si>
-  <si>
-    <t>water depth 8 cm, persa</t>
-  </si>
-  <si>
-    <t>persa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no strain reported, pretest mice</t>
-  </si>
-  <si>
-    <t>pretest mice</t>
-  </si>
-  <si>
-    <t>10/14, other studies from this publication also used this light regime, but for this comparsons the immobility time of vehicle was higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F, ovariectomized, subcutaneous</t>
-  </si>
-  <si>
-    <t>CUMs</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>low emotional, 12/12 reverse</t>
-  </si>
-  <si>
-    <t>high emotional, 12/12 reverse</t>
-  </si>
-  <si>
-    <t>erro na escala, corrigi na planilha crua</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stress reserpine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sex? no info bioterium and duration of tratement</t>
-  </si>
-  <si>
-    <t>laca</t>
-  </si>
-  <si>
-    <t>erro, adicionei stress</t>
   </si>
 </sst>
 </file>
@@ -2455,12 +2401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2799,15 +2744,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M562"/>
+  <dimension ref="A1:L562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F196" workbookViewId="0">
-      <selection activeCell="O203" sqref="O203"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,11 +2789,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.50645032777515275</v>
       </c>
@@ -2882,11 +2824,8 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.1137250905688729</v>
       </c>
@@ -2920,11 +2859,8 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7204971166309946</v>
       </c>
@@ -2958,11 +2894,8 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.69034134212324127</v>
       </c>
@@ -2996,11 +2929,8 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.2424657481085141</v>
       </c>
@@ -3034,11 +2964,8 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.3267440813089504</v>
       </c>
@@ -3072,11 +2999,8 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.55708244547947594</v>
       </c>
@@ -3110,11 +3034,8 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.22483479006665091</v>
       </c>
@@ -3148,11 +3069,8 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.48960510274699842</v>
       </c>
@@ -3186,11 +3104,8 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.87362911245831176</v>
       </c>
@@ -3224,11 +3139,8 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.28455508520583889</v>
       </c>
@@ -3262,11 +3174,8 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.4351410721527863</v>
       </c>
@@ -3300,11 +3209,8 @@
       <c r="L13" t="s">
         <v>31</v>
       </c>
-      <c r="M13" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.5755436934345119</v>
       </c>
@@ -3338,11 +3244,8 @@
       <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="M14" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.27895848014988528</v>
       </c>
@@ -3376,11 +3279,8 @@
       <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="M15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.1153830405671728</v>
       </c>
@@ -3414,11 +3314,8 @@
       <c r="L16" t="s">
         <v>37</v>
       </c>
-      <c r="M16" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.252511408677385</v>
       </c>
@@ -3455,11 +3352,8 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-      <c r="M17" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.55141560138626322</v>
       </c>
@@ -3493,11 +3387,8 @@
       <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.9788527650117751</v>
       </c>
@@ -3534,11 +3425,8 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-      <c r="M19" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.0468519085060857</v>
       </c>
@@ -3575,11 +3463,8 @@
       <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="M20" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.9991872122867371</v>
       </c>
@@ -3616,11 +3501,8 @@
       <c r="L21" t="s">
         <v>44</v>
       </c>
-      <c r="M21" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.0279423505640013</v>
       </c>
@@ -3657,11 +3539,8 @@
       <c r="L22" t="s">
         <v>44</v>
       </c>
-      <c r="M22" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.41593720697162623</v>
       </c>
@@ -3695,11 +3574,8 @@
       <c r="L23" t="s">
         <v>49</v>
       </c>
-      <c r="M23" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.20583340357838359</v>
       </c>
@@ -3733,11 +3609,8 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="M24" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.82941689361353532</v>
       </c>
@@ -3771,11 +3644,8 @@
       <c r="L25" t="s">
         <v>49</v>
       </c>
-      <c r="M25" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.59593229700069617</v>
       </c>
@@ -3809,11 +3679,8 @@
       <c r="L26" t="s">
         <v>49</v>
       </c>
-      <c r="M26" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.6002542204981971</v>
       </c>
@@ -3847,11 +3714,8 @@
       <c r="L27" t="s">
         <v>54</v>
       </c>
-      <c r="M27" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.6195588468459401</v>
       </c>
@@ -3885,11 +3749,8 @@
       <c r="L28" t="s">
         <v>54</v>
       </c>
-      <c r="M28" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.8942609218629201</v>
       </c>
@@ -3923,11 +3784,8 @@
       <c r="L29" t="s">
         <v>54</v>
       </c>
-      <c r="M29" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.386551389796697</v>
       </c>
@@ -3961,11 +3819,8 @@
       <c r="L30" t="s">
         <v>54</v>
       </c>
-      <c r="M30" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-4.8690039353504411E-2</v>
       </c>
@@ -3999,11 +3854,8 @@
       <c r="L31" t="s">
         <v>59</v>
       </c>
-      <c r="M31" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.89942392103964852</v>
       </c>
@@ -4037,11 +3889,8 @@
       <c r="L32" t="s">
         <v>59</v>
       </c>
-      <c r="M32" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.4762618492618931</v>
       </c>
@@ -4075,11 +3924,8 @@
       <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M33" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.6571941741085621</v>
       </c>
@@ -4113,11 +3959,8 @@
       <c r="L34" t="s">
         <v>62</v>
       </c>
-      <c r="M34" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.33135088220520792</v>
       </c>
@@ -4151,11 +3994,8 @@
       <c r="L35" t="s">
         <v>62</v>
       </c>
-      <c r="M35" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.7798654460299782</v>
       </c>
@@ -4189,11 +4029,8 @@
       <c r="L36" t="s">
         <v>62</v>
       </c>
-      <c r="M36" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.7192016890592621</v>
       </c>
@@ -4227,11 +4064,8 @@
       <c r="L37" t="s">
         <v>67</v>
       </c>
-      <c r="M37" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1981923523296492</v>
       </c>
@@ -4265,11 +4099,8 @@
       <c r="L38" t="s">
         <v>67</v>
       </c>
-      <c r="M38" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.7139790793909189</v>
       </c>
@@ -4303,11 +4134,8 @@
       <c r="L39" t="s">
         <v>67</v>
       </c>
-      <c r="M39" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.3061531785637031</v>
       </c>
@@ -4341,11 +4169,8 @@
       <c r="L40" t="s">
         <v>67</v>
       </c>
-      <c r="M40" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.449394143499301</v>
       </c>
@@ -4379,11 +4204,8 @@
       <c r="L41" t="s">
         <v>72</v>
       </c>
-      <c r="M41" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.77815440420215032</v>
       </c>
@@ -4417,11 +4239,8 @@
       <c r="L42" t="s">
         <v>72</v>
       </c>
-      <c r="M42" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.9966436444676611E-2</v>
       </c>
@@ -4455,11 +4274,8 @@
       <c r="L43" t="s">
         <v>72</v>
       </c>
-      <c r="M43" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.69580818214668505</v>
       </c>
@@ -4493,11 +4309,8 @@
       <c r="L44" t="s">
         <v>72</v>
       </c>
-      <c r="M44" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.12135499315076</v>
       </c>
@@ -4531,11 +4344,8 @@
       <c r="L45" t="s">
         <v>77</v>
       </c>
-      <c r="M45" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.15932123729971279</v>
       </c>
@@ -4569,11 +4379,8 @@
       <c r="L46" t="s">
         <v>77</v>
       </c>
-      <c r="M46" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.070062922336682E-2</v>
       </c>
@@ -4607,11 +4414,8 @@
       <c r="L47" t="s">
         <v>77</v>
       </c>
-      <c r="M47" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.98092262823884591</v>
       </c>
@@ -4645,11 +4449,8 @@
       <c r="L48" t="s">
         <v>77</v>
       </c>
-      <c r="M48" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.3835955885622214E-2</v>
       </c>
@@ -4683,11 +4484,8 @@
       <c r="L49" t="s">
         <v>82</v>
       </c>
-      <c r="M49" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.4529581204563562</v>
       </c>
@@ -4724,11 +4522,8 @@
       <c r="L50" t="s">
         <v>84</v>
       </c>
-      <c r="M50" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.8908611781919542</v>
       </c>
@@ -4765,11 +4560,8 @@
       <c r="L51" t="s">
         <v>84</v>
       </c>
-      <c r="M51" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.7067173738556392</v>
       </c>
@@ -4806,11 +4598,8 @@
       <c r="L52" t="s">
         <v>84</v>
       </c>
-      <c r="M52" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.0590854768060671</v>
       </c>
@@ -4844,11 +4633,8 @@
       <c r="L53" t="s">
         <v>88</v>
       </c>
-      <c r="M53" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.34078232431563987</v>
       </c>
@@ -4882,11 +4668,8 @@
       <c r="L54" t="s">
         <v>90</v>
       </c>
-      <c r="M54" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-0.420614321313731</v>
       </c>
@@ -4920,11 +4703,8 @@
       <c r="L55" t="s">
         <v>92</v>
       </c>
-      <c r="M55" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.48307981046917198</v>
       </c>
@@ -4958,11 +4738,8 @@
       <c r="L56" t="s">
         <v>92</v>
       </c>
-      <c r="M56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.0750441562048788E-2</v>
       </c>
@@ -4996,11 +4773,8 @@
       <c r="L57" t="s">
         <v>92</v>
       </c>
-      <c r="M57" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.1970594128209219</v>
       </c>
@@ -5034,11 +4808,8 @@
       <c r="L58" t="s">
         <v>96</v>
       </c>
-      <c r="M58" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.5925137897206221</v>
       </c>
@@ -5072,11 +4843,8 @@
       <c r="L59" t="s">
         <v>96</v>
       </c>
-      <c r="M59" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.6793734287402771</v>
       </c>
@@ -5110,11 +4878,8 @@
       <c r="L60" t="s">
         <v>96</v>
       </c>
-      <c r="M60" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.0639375566232081</v>
       </c>
@@ -5148,11 +4913,8 @@
       <c r="L61" t="s">
         <v>96</v>
       </c>
-      <c r="M61" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3.174961623534128</v>
       </c>
@@ -5186,11 +4948,8 @@
       <c r="L62" t="s">
         <v>96</v>
       </c>
-      <c r="M62" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.89069524337510098</v>
       </c>
@@ -5224,11 +4983,8 @@
       <c r="L63" t="s">
         <v>102</v>
       </c>
-      <c r="M63" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.76989774477440809</v>
       </c>
@@ -5262,11 +5018,8 @@
       <c r="L64" t="s">
         <v>104</v>
       </c>
-      <c r="M64" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.181928035049487</v>
       </c>
@@ -5303,11 +5056,8 @@
       <c r="L65" t="s">
         <v>106</v>
       </c>
-      <c r="M65" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.63384339306356863</v>
       </c>
@@ -5341,11 +5091,8 @@
       <c r="L66" t="s">
         <v>108</v>
       </c>
-      <c r="M66" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.1455500493074561</v>
       </c>
@@ -5379,11 +5126,8 @@
       <c r="L67" t="s">
         <v>108</v>
       </c>
-      <c r="M67" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.3489602212461911</v>
       </c>
@@ -5417,11 +5161,8 @@
       <c r="L68" t="s">
         <v>111</v>
       </c>
-      <c r="M68" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.6699882698558022</v>
       </c>
@@ -5458,11 +5199,8 @@
       <c r="L69" t="s">
         <v>111</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.1502080929343199</v>
       </c>
@@ -5499,11 +5237,8 @@
       <c r="L70" t="s">
         <v>111</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.63101361199020167</v>
       </c>
@@ -5537,11 +5272,8 @@
       <c r="L71" t="s">
         <v>111</v>
       </c>
-      <c r="M71" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.503065938444045</v>
       </c>
@@ -5575,11 +5307,8 @@
       <c r="L72" t="s">
         <v>111</v>
       </c>
-      <c r="M72" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.3082362126680808E-2</v>
       </c>
@@ -5613,11 +5342,8 @@
       <c r="L73" t="s">
         <v>117</v>
       </c>
-      <c r="M73" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.28260466743415158</v>
       </c>
@@ -5651,11 +5377,8 @@
       <c r="L74" t="s">
         <v>119</v>
       </c>
-      <c r="M74" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.47436472135413948</v>
       </c>
@@ -5689,11 +5412,8 @@
       <c r="L75" t="s">
         <v>119</v>
       </c>
-      <c r="M75" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.21392034357951289</v>
       </c>
@@ -5727,11 +5447,8 @@
       <c r="L76" t="s">
         <v>122</v>
       </c>
-      <c r="M76" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.0993254979237079</v>
       </c>
@@ -5765,11 +5482,8 @@
       <c r="L77" t="s">
         <v>122</v>
       </c>
-      <c r="M77" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.587349689667976</v>
       </c>
@@ -5803,11 +5517,8 @@
       <c r="L78" t="s">
         <v>122</v>
       </c>
-      <c r="M78" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.5387675792012481</v>
       </c>
@@ -5841,11 +5552,8 @@
       <c r="L79" t="s">
         <v>126</v>
       </c>
-      <c r="M79" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.9122396078079711</v>
       </c>
@@ -5882,11 +5590,8 @@
       <c r="L80" t="s">
         <v>126</v>
       </c>
-      <c r="M80" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.1697445271067671</v>
       </c>
@@ -5920,11 +5625,8 @@
       <c r="L81" t="s">
         <v>126</v>
       </c>
-      <c r="M81" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.24837299160406659</v>
       </c>
@@ -5958,11 +5660,8 @@
       <c r="L82" t="s">
         <v>126</v>
       </c>
-      <c r="M82" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.71359577726432444</v>
       </c>
@@ -5996,11 +5695,8 @@
       <c r="L83" t="s">
         <v>131</v>
       </c>
-      <c r="M83" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.64190119456576678</v>
       </c>
@@ -6034,11 +5730,8 @@
       <c r="L84" t="s">
         <v>131</v>
       </c>
-      <c r="M84" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.26283545684767451</v>
       </c>
@@ -6072,11 +5765,8 @@
       <c r="L85" t="s">
         <v>131</v>
       </c>
-      <c r="M85" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.27318952516414868</v>
       </c>
@@ -6110,11 +5800,8 @@
       <c r="L86" t="s">
         <v>131</v>
       </c>
-      <c r="M86" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.24134706052721139</v>
       </c>
@@ -6148,11 +5835,8 @@
       <c r="L87" t="s">
         <v>136</v>
       </c>
-      <c r="M87" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.4919702541542259</v>
       </c>
@@ -6186,11 +5870,8 @@
       <c r="L88" t="s">
         <v>138</v>
       </c>
-      <c r="M88" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.4355104653796351</v>
       </c>
@@ -6224,11 +5905,8 @@
       <c r="L89" t="s">
         <v>138</v>
       </c>
-      <c r="M89" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.179531967581902</v>
       </c>
@@ -6265,11 +5943,8 @@
       <c r="L90" t="s">
         <v>141</v>
       </c>
-      <c r="M90" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.57939759676741709</v>
       </c>
@@ -6303,11 +5978,8 @@
       <c r="L91" t="s">
         <v>143</v>
       </c>
-      <c r="M91" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-1.0383135298405779</v>
       </c>
@@ -6341,11 +6013,8 @@
       <c r="L92" t="s">
         <v>143</v>
       </c>
-      <c r="M92" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.1095483550940098</v>
       </c>
@@ -6379,11 +6048,8 @@
       <c r="L93" t="s">
         <v>143</v>
       </c>
-      <c r="M93" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.93406844120132537</v>
       </c>
@@ -6417,11 +6083,8 @@
       <c r="L94" t="s">
         <v>147</v>
       </c>
-      <c r="M94" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.30641359989346728</v>
       </c>
@@ -6455,11 +6118,8 @@
       <c r="L95" t="s">
         <v>149</v>
       </c>
-      <c r="M95" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.1083156935275848</v>
       </c>
@@ -6493,11 +6153,8 @@
       <c r="L96" t="s">
         <v>151</v>
       </c>
-      <c r="M96" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.34722252992980668</v>
       </c>
@@ -6531,11 +6188,8 @@
       <c r="L97" t="s">
         <v>151</v>
       </c>
-      <c r="M97" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.21056924017812409</v>
       </c>
@@ -6569,11 +6223,8 @@
       <c r="L98" t="s">
         <v>154</v>
       </c>
-      <c r="M98" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.1830763365016147</v>
       </c>
@@ -6607,11 +6258,8 @@
       <c r="L99" t="s">
         <v>156</v>
       </c>
-      <c r="M99" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.50140459034892582</v>
       </c>
@@ -6645,11 +6293,8 @@
       <c r="L100" t="s">
         <v>156</v>
       </c>
-      <c r="M100" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.0886376627211609</v>
       </c>
@@ -6683,11 +6328,8 @@
       <c r="L101" t="s">
         <v>156</v>
       </c>
-      <c r="M101" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.70686973013691257</v>
       </c>
@@ -6721,11 +6363,8 @@
       <c r="L102" t="s">
         <v>156</v>
       </c>
-      <c r="M102" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-1.1865835372653211</v>
       </c>
@@ -6759,11 +6398,8 @@
       <c r="L103" t="s">
         <v>156</v>
       </c>
-      <c r="M103" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.2139729882407571</v>
       </c>
@@ -6797,11 +6433,8 @@
       <c r="L104" t="s">
         <v>156</v>
       </c>
-      <c r="M104" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.2810637161327851</v>
       </c>
@@ -6835,11 +6468,8 @@
       <c r="L105" t="s">
         <v>156</v>
       </c>
-      <c r="M105" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-0.50453304836472723</v>
       </c>
@@ -6873,11 +6503,8 @@
       <c r="L106" t="s">
         <v>156</v>
       </c>
-      <c r="M106" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-0.48174674403134499</v>
       </c>
@@ -6911,11 +6538,8 @@
       <c r="L107" t="s">
         <v>156</v>
       </c>
-      <c r="M107" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-1.1602313808759419</v>
       </c>
@@ -6949,11 +6573,8 @@
       <c r="L108" t="s">
         <v>166</v>
       </c>
-      <c r="M108" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-4.0598439544178543E-2</v>
       </c>
@@ -6987,11 +6608,8 @@
       <c r="L109" t="s">
         <v>166</v>
       </c>
-      <c r="M109" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-0.64606266789605971</v>
       </c>
@@ -7025,11 +6643,8 @@
       <c r="L110" t="s">
         <v>166</v>
       </c>
-      <c r="M110" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.1224653419779185</v>
       </c>
@@ -7063,11 +6678,8 @@
       <c r="L111" t="s">
         <v>166</v>
       </c>
-      <c r="M111" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.315654181534684</v>
       </c>
@@ -7101,11 +6713,8 @@
       <c r="L112" t="s">
         <v>171</v>
       </c>
-      <c r="M112" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.1187001223083519</v>
       </c>
@@ -7139,11 +6748,8 @@
       <c r="L113" t="s">
         <v>171</v>
       </c>
-      <c r="M113" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-1.1654092570013519</v>
       </c>
@@ -7177,11 +6783,8 @@
       <c r="L114" t="s">
         <v>174</v>
       </c>
-      <c r="M114" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-0.59948164298514162</v>
       </c>
@@ -7215,11 +6818,8 @@
       <c r="L115" t="s">
         <v>174</v>
       </c>
-      <c r="M115" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-0.82353886437532831</v>
       </c>
@@ -7253,11 +6853,8 @@
       <c r="L116" t="s">
         <v>177</v>
       </c>
-      <c r="M116" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-0.58756801548323867</v>
       </c>
@@ -7291,11 +6888,8 @@
       <c r="L117" t="s">
         <v>179</v>
       </c>
-      <c r="M117" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-0.36825609761340389</v>
       </c>
@@ -7329,11 +6923,8 @@
       <c r="L118" t="s">
         <v>179</v>
       </c>
-      <c r="M118" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.89256395899732</v>
       </c>
@@ -7367,11 +6958,8 @@
       <c r="L119" t="s">
         <v>179</v>
       </c>
-      <c r="M119" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3.1950668081596421</v>
       </c>
@@ -7408,11 +6996,8 @@
       <c r="L120" t="s">
         <v>183</v>
       </c>
-      <c r="M120" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-2.8320691682674669E-2</v>
       </c>
@@ -7446,11 +7031,8 @@
       <c r="L121" t="s">
         <v>185</v>
       </c>
-      <c r="M121" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.34894489061640349</v>
       </c>
@@ -7484,11 +7066,8 @@
       <c r="L122" t="s">
         <v>187</v>
       </c>
-      <c r="M122" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.91040157745599226</v>
       </c>
@@ -7522,11 +7101,8 @@
       <c r="L123" t="s">
         <v>187</v>
       </c>
-      <c r="M123" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-0.92239355991828387</v>
       </c>
@@ -7560,11 +7136,8 @@
       <c r="L124" t="s">
         <v>190</v>
       </c>
-      <c r="M124" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.58636186437190163</v>
       </c>
@@ -7598,11 +7171,8 @@
       <c r="L125" t="s">
         <v>190</v>
       </c>
-      <c r="M125" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.3484831263165436</v>
       </c>
@@ -7636,11 +7206,8 @@
       <c r="L126" t="s">
         <v>190</v>
       </c>
-      <c r="M126" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-0.97168877067285653</v>
       </c>
@@ -7674,11 +7241,8 @@
       <c r="L127" t="s">
         <v>190</v>
       </c>
-      <c r="M127" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8.7989524568416633E-2</v>
       </c>
@@ -7712,11 +7276,8 @@
       <c r="L128" t="s">
         <v>190</v>
       </c>
-      <c r="M128" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.13222034638138769</v>
       </c>
@@ -7750,11 +7311,8 @@
       <c r="L129" t="s">
         <v>190</v>
       </c>
-      <c r="M129" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-1.9036162619497561</v>
       </c>
@@ -7788,11 +7346,8 @@
       <c r="L130" t="s">
         <v>197</v>
       </c>
-      <c r="M130" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-1.0434369441697759</v>
       </c>
@@ -7826,11 +7381,8 @@
       <c r="L131" t="s">
         <v>199</v>
       </c>
-      <c r="M131" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-1.278263174323095</v>
       </c>
@@ -7864,11 +7416,8 @@
       <c r="L132" t="s">
         <v>201</v>
       </c>
-      <c r="M132" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-0.99416087195965175</v>
       </c>
@@ -7902,11 +7451,8 @@
       <c r="L133" t="s">
         <v>201</v>
       </c>
-      <c r="M133" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.62208413155723663</v>
       </c>
@@ -7940,11 +7486,8 @@
       <c r="L134" t="s">
         <v>204</v>
       </c>
-      <c r="M134" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4.1751399823473996</v>
       </c>
@@ -7978,11 +7521,8 @@
       <c r="L135" t="s">
         <v>206</v>
       </c>
-      <c r="M135" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4.0662061487252164</v>
       </c>
@@ -8019,11 +7559,8 @@
       <c r="L136" t="s">
         <v>206</v>
       </c>
-      <c r="M136" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4.0330771171398494</v>
       </c>
@@ -8060,11 +7597,8 @@
       <c r="L137" t="s">
         <v>206</v>
       </c>
-      <c r="M137" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4.1692979743955361</v>
       </c>
@@ -8098,11 +7632,8 @@
       <c r="L138" t="s">
         <v>206</v>
       </c>
-      <c r="M138" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4.0042350205020094</v>
       </c>
@@ -8139,11 +7670,8 @@
       <c r="L139" t="s">
         <v>206</v>
       </c>
-      <c r="M139" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4.3984273884551843</v>
       </c>
@@ -8177,11 +7705,8 @@
       <c r="L140" t="s">
         <v>206</v>
       </c>
-      <c r="M140" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2.6526239075146072</v>
       </c>
@@ -8218,11 +7743,8 @@
       <c r="L141" t="s">
         <v>213</v>
       </c>
-      <c r="M141" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2.710780213267538</v>
       </c>
@@ -8259,11 +7781,8 @@
       <c r="L142" t="s">
         <v>213</v>
       </c>
-      <c r="M142" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.2009505972832164</v>
       </c>
@@ -8297,11 +7816,8 @@
       <c r="L143" t="s">
         <v>216</v>
       </c>
-      <c r="M143" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-0.81250294681238744</v>
       </c>
@@ -8335,11 +7851,8 @@
       <c r="L144" t="s">
         <v>218</v>
       </c>
-      <c r="M144" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>-0.49837424647225947</v>
       </c>
@@ -8373,11 +7886,8 @@
       <c r="L145" t="s">
         <v>218</v>
       </c>
-      <c r="M145" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>-1.1039191340225309</v>
       </c>
@@ -8411,11 +7921,8 @@
       <c r="L146" t="s">
         <v>218</v>
       </c>
-      <c r="M146" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>-1.1198408650099381</v>
       </c>
@@ -8449,11 +7956,8 @@
       <c r="L147" t="s">
         <v>218</v>
       </c>
-      <c r="M147" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2.0129003062163009</v>
       </c>
@@ -8490,11 +7994,8 @@
       <c r="L148" t="s">
         <v>223</v>
       </c>
-      <c r="M148" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2.5495798387279538</v>
       </c>
@@ -8531,11 +8032,8 @@
       <c r="L149" t="s">
         <v>223</v>
       </c>
-      <c r="M149" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>-1.223283594714623</v>
       </c>
@@ -8569,11 +8067,8 @@
       <c r="L150" t="s">
         <v>226</v>
       </c>
-      <c r="M150" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>-0.88489053960256214</v>
       </c>
@@ -8607,11 +8102,8 @@
       <c r="L151" t="s">
         <v>226</v>
       </c>
-      <c r="M151" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.49933913923732842</v>
       </c>
@@ -8645,11 +8137,8 @@
       <c r="L152" t="s">
         <v>229</v>
       </c>
-      <c r="M152" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>-1.4887182342838921</v>
       </c>
@@ -8683,11 +8172,8 @@
       <c r="L153" t="s">
         <v>229</v>
       </c>
-      <c r="M153" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>-0.43722700016165522</v>
       </c>
@@ -8721,11 +8207,8 @@
       <c r="L154" t="s">
         <v>232</v>
       </c>
-      <c r="M154" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0.19911726707745611</v>
       </c>
@@ -8759,11 +8242,8 @@
       <c r="L155" t="s">
         <v>234</v>
       </c>
-      <c r="M155" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.4686390096074351</v>
       </c>
@@ -8797,11 +8277,8 @@
       <c r="L156" t="s">
         <v>234</v>
       </c>
-      <c r="M156" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>-0.7644177234310281</v>
       </c>
@@ -8835,11 +8312,8 @@
       <c r="L157" t="s">
         <v>237</v>
       </c>
-      <c r="M157" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>-1.074517955572463E-2</v>
       </c>
@@ -8873,11 +8347,8 @@
       <c r="L158" t="s">
         <v>237</v>
       </c>
-      <c r="M158" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2.9834421611492339E-2</v>
       </c>
@@ -8911,11 +8382,8 @@
       <c r="L159" t="s">
         <v>237</v>
       </c>
-      <c r="M159" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.204029776913069</v>
       </c>
@@ -8949,11 +8417,8 @@
       <c r="L160" t="s">
         <v>241</v>
       </c>
-      <c r="M160" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0.41728234232394268</v>
       </c>
@@ -8987,11 +8452,8 @@
       <c r="L161" t="s">
         <v>243</v>
       </c>
-      <c r="M161" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>-1.3241976242931399</v>
       </c>
@@ -9025,11 +8487,8 @@
       <c r="L162" t="s">
         <v>245</v>
       </c>
-      <c r="M162" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>-1.0440481588784649</v>
       </c>
@@ -9063,11 +8522,8 @@
       <c r="L163" t="s">
         <v>245</v>
       </c>
-      <c r="M163" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>-0.42134640367687909</v>
       </c>
@@ -9101,11 +8557,8 @@
       <c r="L164" t="s">
         <v>245</v>
       </c>
-      <c r="M164" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>-1.0263221502070801</v>
       </c>
@@ -9139,11 +8592,8 @@
       <c r="L165" t="s">
         <v>245</v>
       </c>
-      <c r="M165" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>-1.2436268482624679</v>
       </c>
@@ -9177,11 +8627,8 @@
       <c r="L166" t="s">
         <v>245</v>
       </c>
-      <c r="M166" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>-0.9000281858698117</v>
       </c>
@@ -9215,11 +8662,8 @@
       <c r="L167" t="s">
         <v>245</v>
       </c>
-      <c r="M167" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>-0.43343691465727879</v>
       </c>
@@ -9253,11 +8697,8 @@
       <c r="L168" t="s">
         <v>245</v>
       </c>
-      <c r="M168" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0.3154085707658959</v>
       </c>
@@ -9291,11 +8732,8 @@
       <c r="L169" t="s">
         <v>253</v>
       </c>
-      <c r="M169" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8.5559370351904779E-2</v>
       </c>
@@ -9329,11 +8767,8 @@
       <c r="L170" t="s">
         <v>253</v>
       </c>
-      <c r="M170" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>-0.46217156533710452</v>
       </c>
@@ -9367,11 +8802,8 @@
       <c r="L171" t="s">
         <v>253</v>
       </c>
-      <c r="M171" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0.10744220637809181</v>
       </c>
@@ -9405,11 +8837,8 @@
       <c r="L172" t="s">
         <v>253</v>
       </c>
-      <c r="M172" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>-0.50818354123660847</v>
       </c>
@@ -9443,11 +8872,8 @@
       <c r="L173" t="s">
         <v>253</v>
       </c>
-      <c r="M173" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>-0.8887014266625457</v>
       </c>
@@ -9481,11 +8907,8 @@
       <c r="L174" t="s">
         <v>253</v>
       </c>
-      <c r="M174" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0.60853508291920488</v>
       </c>
@@ -9519,11 +8942,8 @@
       <c r="L175" t="s">
         <v>260</v>
       </c>
-      <c r="M175" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.0702043488500741</v>
       </c>
@@ -9557,11 +8977,8 @@
       <c r="L176" t="s">
         <v>262</v>
       </c>
-      <c r="M176" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>-0.10311073437881629</v>
       </c>
@@ -9595,11 +9012,8 @@
       <c r="L177" t="s">
         <v>262</v>
       </c>
-      <c r="M177" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0.47647448351302168</v>
       </c>
@@ -9633,11 +9047,8 @@
       <c r="L178" t="s">
         <v>262</v>
       </c>
-      <c r="M178" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0.46865752463099758</v>
       </c>
@@ -9671,11 +9082,8 @@
       <c r="L179" t="s">
         <v>266</v>
       </c>
-      <c r="M179" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.1218391089999305</v>
       </c>
@@ -9709,11 +9117,8 @@
       <c r="L180" t="s">
         <v>268</v>
       </c>
-      <c r="M180" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-0.44750010698265358</v>
       </c>
@@ -9747,11 +9152,8 @@
       <c r="L181" t="s">
         <v>268</v>
       </c>
-      <c r="M181" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>-0.78301340708802858</v>
       </c>
@@ -9785,11 +9187,8 @@
       <c r="L182" t="s">
         <v>271</v>
       </c>
-      <c r="M182" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-0.72513899840425733</v>
       </c>
@@ -9823,11 +9222,8 @@
       <c r="L183" t="s">
         <v>271</v>
       </c>
-      <c r="M183" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-0.20422666275064461</v>
       </c>
@@ -9861,11 +9257,8 @@
       <c r="L184" t="s">
         <v>271</v>
       </c>
-      <c r="M184" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>-0.39272598162989492</v>
       </c>
@@ -9899,11 +9292,8 @@
       <c r="L185" t="s">
         <v>271</v>
       </c>
-      <c r="M185" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.450787774943298</v>
       </c>
@@ -9937,11 +9327,8 @@
       <c r="L186" t="s">
         <v>276</v>
       </c>
-      <c r="M186" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0.1305920653936348</v>
       </c>
@@ -9975,11 +9362,8 @@
       <c r="L187" t="s">
         <v>278</v>
       </c>
-      <c r="M187" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>-0.45809165038309879</v>
       </c>
@@ -10013,11 +9397,8 @@
       <c r="L188" t="s">
         <v>278</v>
       </c>
-      <c r="M188" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>-1.390065340151097</v>
       </c>
@@ -10051,11 +9432,8 @@
       <c r="L189" t="s">
         <v>278</v>
       </c>
-      <c r="M189" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>-1.2207007506619361</v>
       </c>
@@ -10089,11 +9467,8 @@
       <c r="L190" t="s">
         <v>278</v>
       </c>
-      <c r="M190" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0.95522135629528948</v>
       </c>
@@ -10127,11 +9502,8 @@
       <c r="L191" t="s">
         <v>283</v>
       </c>
-      <c r="M191" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>-0.61366849588630223</v>
       </c>
@@ -10165,11 +9537,8 @@
       <c r="L192" t="s">
         <v>285</v>
       </c>
-      <c r="M192" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>-0.49488778808401601</v>
       </c>
@@ -10203,11 +9572,8 @@
       <c r="L193" t="s">
         <v>287</v>
       </c>
-      <c r="M193" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>-1.326582009615068</v>
       </c>
@@ -10241,11 +9607,8 @@
       <c r="L194" t="s">
         <v>289</v>
       </c>
-      <c r="M194" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>-1.0014104768058669</v>
       </c>
@@ -10279,11 +9642,8 @@
       <c r="L195" t="s">
         <v>289</v>
       </c>
-      <c r="M195" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.25899955716258238</v>
       </c>
@@ -10317,11 +9677,8 @@
       <c r="L196" t="s">
         <v>289</v>
       </c>
-      <c r="M196" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>-0.33827149029933118</v>
       </c>
@@ -10355,11 +9712,8 @@
       <c r="L197" t="s">
         <v>289</v>
       </c>
-      <c r="M197" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>-0.99762389201915525</v>
       </c>
@@ -10393,11 +9747,8 @@
       <c r="L198" t="s">
         <v>289</v>
       </c>
-      <c r="M198" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>-0.50879269811492522</v>
       </c>
@@ -10431,11 +9782,8 @@
       <c r="L199" t="s">
         <v>289</v>
       </c>
-      <c r="M199" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-0.50285853113178736</v>
       </c>
@@ -10469,11 +9817,8 @@
       <c r="L200" t="s">
         <v>296</v>
       </c>
-      <c r="M200" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>-1.1425803720156309</v>
       </c>
@@ -10507,11 +9852,8 @@
       <c r="L201" t="s">
         <v>296</v>
       </c>
-      <c r="M201" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>-1.0111296981734399</v>
       </c>
@@ -10545,11 +9887,8 @@
       <c r="L202" t="s">
         <v>299</v>
       </c>
-      <c r="M202" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>-0.46940776446640292</v>
       </c>
@@ -10583,11 +9922,8 @@
       <c r="L203" t="s">
         <v>299</v>
       </c>
-      <c r="M203" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>-0.202180570606841</v>
       </c>
@@ -10621,11 +9957,8 @@
       <c r="L204" t="s">
         <v>299</v>
       </c>
-      <c r="M204" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>-9.1508833269809867E-2</v>
       </c>
@@ -10659,11 +9992,8 @@
       <c r="L205" t="s">
         <v>303</v>
       </c>
-      <c r="M205" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3.527744688489606</v>
       </c>
@@ -10697,11 +10027,8 @@
       <c r="L206" t="s">
         <v>305</v>
       </c>
-      <c r="M206" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3.2852780866494511</v>
       </c>
@@ -10735,11 +10062,8 @@
       <c r="L207" t="s">
         <v>305</v>
       </c>
-      <c r="M207" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3.4075340223233601</v>
       </c>
@@ -10773,11 +10097,8 @@
       <c r="L208" t="s">
         <v>305</v>
       </c>
-      <c r="M208" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3.2878368434514469</v>
       </c>
@@ -10811,11 +10132,8 @@
       <c r="L209" t="s">
         <v>305</v>
       </c>
-      <c r="M209" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3.3664549510647381</v>
       </c>
@@ -10849,11 +10167,8 @@
       <c r="L210" t="s">
         <v>305</v>
       </c>
-      <c r="M210" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3.2292163433577841</v>
       </c>
@@ -10890,11 +10205,8 @@
       <c r="L211" t="s">
         <v>305</v>
       </c>
-      <c r="M211" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2.6503677087303341</v>
       </c>
@@ -10931,11 +10243,8 @@
       <c r="L212" t="s">
         <v>305</v>
       </c>
-      <c r="M212" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2.397702295026785</v>
       </c>
@@ -10972,11 +10281,8 @@
       <c r="L213" t="s">
         <v>305</v>
       </c>
-      <c r="M213" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2.4033122215917211</v>
       </c>
@@ -11013,11 +10319,8 @@
       <c r="L214" t="s">
         <v>305</v>
       </c>
-      <c r="M214" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1.7820814744400211</v>
       </c>
@@ -11051,11 +10354,8 @@
       <c r="L215" t="s">
         <v>305</v>
       </c>
-      <c r="M215" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>-0.71564375062810237</v>
       </c>
@@ -11089,11 +10389,8 @@
       <c r="L216" t="s">
         <v>316</v>
       </c>
-      <c r="M216" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>-0.38547515415931688</v>
       </c>
@@ -11127,11 +10424,8 @@
       <c r="L217" t="s">
         <v>316</v>
       </c>
-      <c r="M217" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0.12907596555103429</v>
       </c>
@@ -11165,11 +10459,8 @@
       <c r="L218" t="s">
         <v>316</v>
       </c>
-      <c r="M218" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-0.71277583958017421</v>
       </c>
@@ -11203,11 +10494,8 @@
       <c r="L219" t="s">
         <v>316</v>
       </c>
-      <c r="M219" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-0.52079581571745837</v>
       </c>
@@ -11241,11 +10529,8 @@
       <c r="L220" t="s">
         <v>316</v>
       </c>
-      <c r="M220" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-1.461401324694434</v>
       </c>
@@ -11279,11 +10564,8 @@
       <c r="L221" t="s">
         <v>322</v>
       </c>
-      <c r="M221" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-0.57020830781780107</v>
       </c>
@@ -11317,11 +10599,8 @@
       <c r="L222" t="s">
         <v>322</v>
       </c>
-      <c r="M222" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1.340493563396294</v>
       </c>
@@ -11355,11 +10634,8 @@
       <c r="L223" t="s">
         <v>325</v>
       </c>
-      <c r="M223" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2.6771158775936801E-2</v>
       </c>
@@ -11393,11 +10669,8 @@
       <c r="L224" t="s">
         <v>327</v>
       </c>
-      <c r="M224" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>-1.2868568921073209</v>
       </c>
@@ -11431,11 +10704,8 @@
       <c r="L225" t="s">
         <v>327</v>
       </c>
-      <c r="M225" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-0.60405510034249299</v>
       </c>
@@ -11469,11 +10739,8 @@
       <c r="L226" t="s">
         <v>327</v>
       </c>
-      <c r="M226" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1.734381499912532E-2</v>
       </c>
@@ -11507,11 +10774,8 @@
       <c r="L227" t="s">
         <v>327</v>
       </c>
-      <c r="M227" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-1.901010148081693</v>
       </c>
@@ -11545,11 +10809,8 @@
       <c r="L228" t="s">
         <v>332</v>
       </c>
-      <c r="M228" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-0.76347119123070784</v>
       </c>
@@ -11583,11 +10844,8 @@
       <c r="L229" t="s">
         <v>334</v>
       </c>
-      <c r="M229" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-0.62970006577725246</v>
       </c>
@@ -11621,11 +10879,8 @@
       <c r="L230" t="s">
         <v>334</v>
       </c>
-      <c r="M230" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-3.5928540879420642E-2</v>
       </c>
@@ -11659,11 +10914,8 @@
       <c r="L231" t="s">
         <v>334</v>
       </c>
-      <c r="M231" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1.8157518631269409</v>
       </c>
@@ -11697,11 +10949,8 @@
       <c r="L232" t="s">
         <v>334</v>
       </c>
-      <c r="M232" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2.7610716749043589</v>
       </c>
@@ -11738,11 +10987,8 @@
       <c r="L233" t="s">
         <v>339</v>
       </c>
-      <c r="M233" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3.5445526246328241</v>
       </c>
@@ -11776,11 +11022,8 @@
       <c r="L234" t="s">
         <v>339</v>
       </c>
-      <c r="M234" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1.215546413820672</v>
       </c>
@@ -11814,11 +11057,8 @@
       <c r="L235" t="s">
         <v>339</v>
       </c>
-      <c r="M235" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0.47263145879220952</v>
       </c>
@@ -11852,11 +11092,8 @@
       <c r="L236" t="s">
         <v>339</v>
       </c>
-      <c r="M236" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0.29646288627189937</v>
       </c>
@@ -11890,11 +11127,8 @@
       <c r="L237" t="s">
         <v>339</v>
       </c>
-      <c r="M237" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1.9490183709408511</v>
       </c>
@@ -11928,11 +11162,8 @@
       <c r="L238" t="s">
         <v>339</v>
       </c>
-      <c r="M238" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3.3620473691670449</v>
       </c>
@@ -11966,11 +11197,8 @@
       <c r="L239" t="s">
         <v>339</v>
       </c>
-      <c r="M239" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-0.1376079968287017</v>
       </c>
@@ -12004,11 +11232,8 @@
       <c r="L240" t="s">
         <v>339</v>
       </c>
-      <c r="M240" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1.208860748621589</v>
       </c>
@@ -12042,11 +11267,8 @@
       <c r="L241" t="s">
         <v>339</v>
       </c>
-      <c r="M241" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2.530416690838392</v>
       </c>
@@ -12080,11 +11302,8 @@
       <c r="L242" t="s">
         <v>339</v>
       </c>
-      <c r="M242" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0.29197337399057161</v>
       </c>
@@ -12118,11 +11337,8 @@
       <c r="L243" t="s">
         <v>339</v>
       </c>
-      <c r="M243" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2.8211093587199638</v>
       </c>
@@ -12159,11 +11375,8 @@
       <c r="L244" t="s">
         <v>351</v>
       </c>
-      <c r="M244" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-0.93103283542048898</v>
       </c>
@@ -12197,11 +11410,8 @@
       <c r="L245" t="s">
         <v>353</v>
       </c>
-      <c r="M245" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-0.80270111671434863</v>
       </c>
@@ -12235,11 +11445,8 @@
       <c r="L246" t="s">
         <v>353</v>
       </c>
-      <c r="M246" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-0.55759201663567359</v>
       </c>
@@ -12273,11 +11480,8 @@
       <c r="L247" t="s">
         <v>353</v>
       </c>
-      <c r="M247" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-4.2880219637155263E-2</v>
       </c>
@@ -12311,11 +11515,8 @@
       <c r="L248" t="s">
         <v>353</v>
       </c>
-      <c r="M248" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-0.50814929106499085</v>
       </c>
@@ -12349,11 +11550,8 @@
       <c r="L249" t="s">
         <v>358</v>
       </c>
-      <c r="M249" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.2180152320805577</v>
       </c>
@@ -12387,11 +11585,8 @@
       <c r="L250" t="s">
         <v>358</v>
       </c>
-      <c r="M250" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.35826154487271611</v>
       </c>
@@ -12425,11 +11620,8 @@
       <c r="L251" t="s">
         <v>361</v>
       </c>
-      <c r="M251" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0.89684907699933192</v>
       </c>
@@ -12463,11 +11655,8 @@
       <c r="L252" t="s">
         <v>361</v>
       </c>
-      <c r="M252" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-0.30515214615358821</v>
       </c>
@@ -12501,11 +11690,8 @@
       <c r="L253" t="s">
         <v>361</v>
       </c>
-      <c r="M253" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0.42029194932052061</v>
       </c>
@@ -12539,11 +11725,8 @@
       <c r="L254" t="s">
         <v>361</v>
       </c>
-      <c r="M254" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-1.090886187861879</v>
       </c>
@@ -12577,11 +11760,8 @@
       <c r="L255" t="s">
         <v>361</v>
       </c>
-      <c r="M255" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-0.2721438121211186</v>
       </c>
@@ -12615,11 +11795,8 @@
       <c r="L256" t="s">
         <v>361</v>
       </c>
-      <c r="M256" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-0.58273437861072941</v>
       </c>
@@ -12653,11 +11830,8 @@
       <c r="L257" t="s">
         <v>368</v>
       </c>
-      <c r="M257" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-0.57771964011654564</v>
       </c>
@@ -12691,11 +11865,8 @@
       <c r="L258" t="s">
         <v>368</v>
       </c>
-      <c r="M258" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-0.72168488053190194</v>
       </c>
@@ -12729,11 +11900,8 @@
       <c r="L259" t="s">
         <v>368</v>
       </c>
-      <c r="M259" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-0.38584626804561578</v>
       </c>
@@ -12767,11 +11935,8 @@
       <c r="L260" t="s">
         <v>368</v>
       </c>
-      <c r="M260" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-0.27486395575339312</v>
       </c>
@@ -12805,11 +11970,8 @@
       <c r="L261" t="s">
         <v>373</v>
       </c>
-      <c r="M261" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-0.43858781512649658</v>
       </c>
@@ -12843,11 +12005,8 @@
       <c r="L262" t="s">
         <v>373</v>
       </c>
-      <c r="M262" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-0.61864227357658175</v>
       </c>
@@ -12881,11 +12040,8 @@
       <c r="L263" t="s">
         <v>373</v>
       </c>
-      <c r="M263" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-0.33840064042378593</v>
       </c>
@@ -12919,11 +12075,8 @@
       <c r="L264" t="s">
         <v>373</v>
       </c>
-      <c r="M264" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-0.4996689907238992</v>
       </c>
@@ -12957,11 +12110,8 @@
       <c r="L265" t="s">
         <v>373</v>
       </c>
-      <c r="M265" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-0.71270238358194182</v>
       </c>
@@ -12995,11 +12145,8 @@
       <c r="L266" t="s">
         <v>373</v>
       </c>
-      <c r="M266" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2.5236898649902698E-2</v>
       </c>
@@ -13033,11 +12180,8 @@
       <c r="L267" t="s">
         <v>380</v>
       </c>
-      <c r="M267" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-0.24771818401457349</v>
       </c>
@@ -13071,11 +12215,8 @@
       <c r="L268" t="s">
         <v>380</v>
       </c>
-      <c r="M268" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0.85145908245413804</v>
       </c>
@@ -13109,11 +12250,8 @@
       <c r="L269" t="s">
         <v>383</v>
       </c>
-      <c r="M269" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1.2510997993419419</v>
       </c>
@@ -13147,11 +12285,8 @@
       <c r="L270" t="s">
         <v>383</v>
       </c>
-      <c r="M270" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-0.783717334181952</v>
       </c>
@@ -13185,11 +12320,8 @@
       <c r="L271" t="s">
         <v>386</v>
       </c>
-      <c r="M271" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-1.003309403574584</v>
       </c>
@@ -13223,11 +12355,8 @@
       <c r="L272" t="s">
         <v>386</v>
       </c>
-      <c r="M272" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-0.67516094397789161</v>
       </c>
@@ -13261,11 +12390,8 @@
       <c r="L273" t="s">
         <v>386</v>
       </c>
-      <c r="M273" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-1.0409504670268901</v>
       </c>
@@ -13299,11 +12425,8 @@
       <c r="L274" t="s">
         <v>386</v>
       </c>
-      <c r="M274" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-0.50332749365972806</v>
       </c>
@@ -13337,11 +12460,8 @@
       <c r="L275" t="s">
         <v>386</v>
       </c>
-      <c r="M275" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-1.019127488429818</v>
       </c>
@@ -13375,11 +12495,8 @@
       <c r="L276" t="s">
         <v>386</v>
       </c>
-      <c r="M276" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-1.0594410812308039</v>
       </c>
@@ -13413,11 +12530,8 @@
       <c r="L277" t="s">
         <v>386</v>
       </c>
-      <c r="M277" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-1.015191601621739</v>
       </c>
@@ -13451,11 +12565,8 @@
       <c r="L278" t="s">
         <v>386</v>
       </c>
-      <c r="M278" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.44660255098441409</v>
       </c>
@@ -13489,11 +12600,8 @@
       <c r="L279" t="s">
         <v>395</v>
       </c>
-      <c r="M279" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.79404774941334866</v>
       </c>
@@ -13527,11 +12635,8 @@
       <c r="L280" t="s">
         <v>397</v>
       </c>
-      <c r="M280" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-8.1203699043699271E-2</v>
       </c>
@@ -13565,11 +12670,8 @@
       <c r="L281" t="s">
         <v>399</v>
       </c>
-      <c r="M281" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-0.13784219433775249</v>
       </c>
@@ -13603,11 +12705,8 @@
       <c r="L282" t="s">
         <v>399</v>
       </c>
-      <c r="M282" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0.91121994599511813</v>
       </c>
@@ -13641,11 +12740,8 @@
       <c r="L283" t="s">
         <v>399</v>
       </c>
-      <c r="M283" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.1253812165795001</v>
       </c>
@@ -13682,11 +12778,8 @@
       <c r="L284" t="s">
         <v>403</v>
       </c>
-      <c r="M284" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3.4867320249203191</v>
       </c>
@@ -13720,11 +12813,8 @@
       <c r="L285" t="s">
         <v>403</v>
       </c>
-      <c r="M285" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.6908145270219008</v>
       </c>
@@ -13758,11 +12848,8 @@
       <c r="L286" t="s">
         <v>403</v>
       </c>
-      <c r="M286" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.8603461079942341</v>
       </c>
@@ -13796,11 +12883,8 @@
       <c r="L287" t="s">
         <v>403</v>
       </c>
-      <c r="M287" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3.693289111478252</v>
       </c>
@@ -13837,11 +12921,8 @@
       <c r="L288" t="s">
         <v>403</v>
       </c>
-      <c r="M288" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3.3232936889364439</v>
       </c>
@@ -13878,11 +12959,8 @@
       <c r="L289" t="s">
         <v>403</v>
       </c>
-      <c r="M289" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3.6397126447231689</v>
       </c>
@@ -13919,11 +12997,8 @@
       <c r="L290" t="s">
         <v>403</v>
       </c>
-      <c r="M290" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3.7250739646292188</v>
       </c>
@@ -13960,11 +13035,8 @@
       <c r="L291" t="s">
         <v>411</v>
       </c>
-      <c r="M291" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-0.34509734822384591</v>
       </c>
@@ -13998,11 +13070,8 @@
       <c r="L292" t="s">
         <v>413</v>
       </c>
-      <c r="M292" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-0.96388305315561251</v>
       </c>
@@ -14036,11 +13105,8 @@
       <c r="L293" t="s">
         <v>413</v>
       </c>
-      <c r="M293" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-0.95228068953300926</v>
       </c>
@@ -14074,11 +13140,8 @@
       <c r="L294" t="s">
         <v>416</v>
       </c>
-      <c r="M294" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-0.83767483834418943</v>
       </c>
@@ -14112,11 +13175,8 @@
       <c r="L295" t="s">
         <v>416</v>
       </c>
-      <c r="M295" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.26579408505586588</v>
       </c>
@@ -14150,11 +13210,8 @@
       <c r="L296" t="s">
         <v>416</v>
       </c>
-      <c r="M296" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>-0.35834143537568458</v>
       </c>
@@ -14188,11 +13245,8 @@
       <c r="L297" t="s">
         <v>420</v>
       </c>
-      <c r="M297" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-0.78284466211396586</v>
       </c>
@@ -14226,11 +13280,8 @@
       <c r="L298" t="s">
         <v>422</v>
       </c>
-      <c r="M298" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-0.38979256289252689</v>
       </c>
@@ -14264,11 +13315,8 @@
       <c r="L299" t="s">
         <v>422</v>
       </c>
-      <c r="M299" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-0.53886631129161766</v>
       </c>
@@ -14302,11 +13350,8 @@
       <c r="L300" t="s">
         <v>425</v>
       </c>
-      <c r="M300" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-0.88842994805019115</v>
       </c>
@@ -14340,11 +13385,8 @@
       <c r="L301" t="s">
         <v>427</v>
       </c>
-      <c r="M301" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.47367883110327391</v>
       </c>
@@ -14378,11 +13420,8 @@
       <c r="L302" t="s">
         <v>427</v>
       </c>
-      <c r="M302" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.59095963410401342</v>
       </c>
@@ -14416,11 +13455,8 @@
       <c r="L303" t="s">
         <v>427</v>
       </c>
-      <c r="M303" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>-0.19415492535185841</v>
       </c>
@@ -14454,11 +13490,8 @@
       <c r="L304" t="s">
         <v>431</v>
       </c>
-      <c r="M304" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-0.89305326998046497</v>
       </c>
@@ -14492,11 +13525,8 @@
       <c r="L305" t="s">
         <v>433</v>
       </c>
-      <c r="M305" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-0.3974349646868533</v>
       </c>
@@ -14530,11 +13560,8 @@
       <c r="L306" t="s">
         <v>433</v>
       </c>
-      <c r="M306" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-0.26611374883814221</v>
       </c>
@@ -14568,11 +13595,8 @@
       <c r="L307" t="s">
         <v>436</v>
       </c>
-      <c r="M307" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-0.59776558140795821</v>
       </c>
@@ -14606,11 +13630,8 @@
       <c r="L308" t="s">
         <v>438</v>
       </c>
-      <c r="M308" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1.114240206672459</v>
       </c>
@@ -14644,11 +13665,8 @@
       <c r="L309" t="s">
         <v>438</v>
       </c>
-      <c r="M309" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-0.84733784362175402</v>
       </c>
@@ -14682,11 +13700,8 @@
       <c r="L310" t="s">
         <v>441</v>
       </c>
-      <c r="M310" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0.50506442916009953</v>
       </c>
@@ -14720,11 +13735,8 @@
       <c r="L311" t="s">
         <v>441</v>
       </c>
-      <c r="M311" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2.3849446090460469</v>
       </c>
@@ -14761,11 +13773,8 @@
       <c r="L312" t="s">
         <v>441</v>
       </c>
-      <c r="M312" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-0.82918106952125947</v>
       </c>
@@ -14799,11 +13808,8 @@
       <c r="L313" t="s">
         <v>441</v>
       </c>
-      <c r="M313" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0.2219358779589708</v>
       </c>
@@ -14837,11 +13843,8 @@
       <c r="L314" t="s">
         <v>441</v>
       </c>
-      <c r="M314" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.5867927014062349</v>
       </c>
@@ -14878,11 +13881,8 @@
       <c r="L315" t="s">
         <v>441</v>
       </c>
-      <c r="M315" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-0.78167508006911612</v>
       </c>
@@ -14916,11 +13916,8 @@
       <c r="L316" t="s">
         <v>441</v>
       </c>
-      <c r="M316" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1.0915471759637969</v>
       </c>
@@ -14954,11 +13951,8 @@
       <c r="L317" t="s">
         <v>441</v>
       </c>
-      <c r="M317" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1.351729952144044</v>
       </c>
@@ -14992,11 +13986,8 @@
       <c r="L318" t="s">
         <v>441</v>
       </c>
-      <c r="M318" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1.257005115881944</v>
       </c>
@@ -15030,11 +14021,8 @@
       <c r="L319" t="s">
         <v>451</v>
       </c>
-      <c r="M319" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1.8105686079383281</v>
       </c>
@@ -15068,11 +14056,8 @@
       <c r="L320" t="s">
         <v>451</v>
       </c>
-      <c r="M320" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0.70710780605209944</v>
       </c>
@@ -15106,11 +14091,8 @@
       <c r="L321" t="s">
         <v>454</v>
       </c>
-      <c r="M321" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3.9760626522010458</v>
       </c>
@@ -15147,11 +14129,8 @@
       <c r="L322" t="s">
         <v>456</v>
       </c>
-      <c r="M322" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4.7672052223042591</v>
       </c>
@@ -15188,11 +14167,8 @@
       <c r="L323" t="s">
         <v>456</v>
       </c>
-      <c r="M323" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4.370365270555169</v>
       </c>
@@ -15229,11 +14205,8 @@
       <c r="L324" t="s">
         <v>456</v>
       </c>
-      <c r="M324" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4.4809406717009947</v>
       </c>
@@ -15270,11 +14243,8 @@
       <c r="L325" t="s">
         <v>456</v>
       </c>
-      <c r="M325" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5302238497901977</v>
       </c>
@@ -15311,11 +14281,8 @@
       <c r="L326" t="s">
         <v>456</v>
       </c>
-      <c r="M326" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-0.8844688451443552</v>
       </c>
@@ -15349,11 +14316,8 @@
       <c r="L327" t="s">
         <v>462</v>
       </c>
-      <c r="M327" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-0.57738310525494452</v>
       </c>
@@ -15387,11 +14351,8 @@
       <c r="L328" t="s">
         <v>462</v>
       </c>
-      <c r="M328" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0.23921081551559031</v>
       </c>
@@ -15425,11 +14386,8 @@
       <c r="L329" t="s">
         <v>462</v>
       </c>
-      <c r="M329" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0.84931709640288366</v>
       </c>
@@ -15463,11 +14421,8 @@
       <c r="L330" t="s">
         <v>462</v>
       </c>
-      <c r="M330" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1.959221566308466</v>
       </c>
@@ -15504,11 +14459,8 @@
       <c r="L331" t="s">
         <v>467</v>
       </c>
-      <c r="M331" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2.1919377572352912</v>
       </c>
@@ -15545,11 +14497,8 @@
       <c r="L332" t="s">
         <v>467</v>
       </c>
-      <c r="M332" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-0.1386165976509986</v>
       </c>
@@ -15583,11 +14532,8 @@
       <c r="L333" t="s">
         <v>470</v>
       </c>
-      <c r="M333" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1.3394474729182579</v>
       </c>
@@ -15621,11 +14567,8 @@
       <c r="L334" t="s">
         <v>472</v>
       </c>
-      <c r="M334" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0.62490812964787112</v>
       </c>
@@ -15659,11 +14602,8 @@
       <c r="L335" t="s">
         <v>474</v>
       </c>
-      <c r="M335" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-0.60063764225913152</v>
       </c>
@@ -15697,11 +14637,8 @@
       <c r="L336" t="s">
         <v>476</v>
       </c>
-      <c r="M336" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5.2478551422836729E-2</v>
       </c>
@@ -15735,11 +14672,8 @@
       <c r="L337" t="s">
         <v>478</v>
       </c>
-      <c r="M337" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0.28820363992055842</v>
       </c>
@@ -15773,11 +14707,8 @@
       <c r="L338" t="s">
         <v>478</v>
       </c>
-      <c r="M338" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0.42565777148476802</v>
       </c>
@@ -15811,11 +14742,8 @@
       <c r="L339" t="s">
         <v>481</v>
       </c>
-      <c r="M339" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1.70968896202664</v>
       </c>
@@ -15849,11 +14777,8 @@
       <c r="L340" t="s">
         <v>481</v>
       </c>
-      <c r="M340" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>-0.66931448116217518</v>
       </c>
@@ -15887,11 +14812,8 @@
       <c r="L341" t="s">
         <v>484</v>
       </c>
-      <c r="M341" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>-5.236724072891466E-2</v>
       </c>
@@ -15925,11 +14847,8 @@
       <c r="L342" t="s">
         <v>484</v>
       </c>
-      <c r="M342" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>-0.92704870278254414</v>
       </c>
@@ -15963,11 +14882,8 @@
       <c r="L343" t="s">
         <v>484</v>
       </c>
-      <c r="M343" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>-0.79378077975812966</v>
       </c>
@@ -16001,11 +14917,8 @@
       <c r="L344" t="s">
         <v>484</v>
       </c>
-      <c r="M344" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>-1.2667770106434371</v>
       </c>
@@ -16039,11 +14952,8 @@
       <c r="L345" t="s">
         <v>484</v>
       </c>
-      <c r="M345" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>-0.41512511950309378</v>
       </c>
@@ -16077,11 +14987,8 @@
       <c r="L346" t="s">
         <v>490</v>
       </c>
-      <c r="M346" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>-7.4338163674072574E-2</v>
       </c>
@@ -16115,11 +15022,8 @@
       <c r="L347" t="s">
         <v>490</v>
       </c>
-      <c r="M347" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>-0.23539766361496811</v>
       </c>
@@ -16153,11 +15057,8 @@
       <c r="L348" t="s">
         <v>493</v>
       </c>
-      <c r="M348" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>-1.065815639769649</v>
       </c>
@@ -16191,11 +15092,8 @@
       <c r="L349" t="s">
         <v>493</v>
       </c>
-      <c r="M349" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0.34237635332699201</v>
       </c>
@@ -16229,11 +15127,8 @@
       <c r="L350" t="s">
         <v>496</v>
       </c>
-      <c r="M350" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3.5040300558569428</v>
       </c>
@@ -16270,11 +15165,8 @@
       <c r="L351" t="s">
         <v>498</v>
       </c>
-      <c r="M351" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0.65896013178891633</v>
       </c>
@@ -16308,11 +15200,8 @@
       <c r="L352" t="s">
         <v>500</v>
       </c>
-      <c r="M352" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1.3655098296920221</v>
       </c>
@@ -16346,11 +15235,8 @@
       <c r="L353" t="s">
         <v>500</v>
       </c>
-      <c r="M353" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0.33892466850053349</v>
       </c>
@@ -16384,11 +15270,8 @@
       <c r="L354" t="s">
         <v>503</v>
       </c>
-      <c r="M354" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-1.0163213913330931</v>
       </c>
@@ -16422,11 +15305,8 @@
       <c r="L355" t="s">
         <v>503</v>
       </c>
-      <c r="M355" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-0.2260499032523991</v>
       </c>
@@ -16460,11 +15340,8 @@
       <c r="L356" t="s">
         <v>503</v>
       </c>
-      <c r="M356" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>-1.1211770423726131</v>
       </c>
@@ -16498,11 +15375,8 @@
       <c r="L357" t="s">
         <v>503</v>
       </c>
-      <c r="M357" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0.69150546155551051</v>
       </c>
@@ -16536,11 +15410,8 @@
       <c r="L358" t="s">
         <v>503</v>
       </c>
-      <c r="M358" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-0.47829398915608351</v>
       </c>
@@ -16574,11 +15445,8 @@
       <c r="L359" t="s">
         <v>503</v>
       </c>
-      <c r="M359" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>-0.68412470805072811</v>
       </c>
@@ -16612,11 +15480,8 @@
       <c r="L360" t="s">
         <v>503</v>
       </c>
-      <c r="M360" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>-1.0639875290552321</v>
       </c>
@@ -16650,11 +15515,8 @@
       <c r="L361" t="s">
         <v>503</v>
       </c>
-      <c r="M361" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>-1.0303895411383659</v>
       </c>
@@ -16688,11 +15550,8 @@
       <c r="L362" t="s">
         <v>503</v>
       </c>
-      <c r="M362" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>-1.333555289049015</v>
       </c>
@@ -16726,11 +15585,8 @@
       <c r="L363" t="s">
         <v>513</v>
       </c>
-      <c r="M363" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>-0.59827543387407023</v>
       </c>
@@ -16764,11 +15620,8 @@
       <c r="L364" t="s">
         <v>515</v>
       </c>
-      <c r="M364" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>-0.1721947976308715</v>
       </c>
@@ -16802,11 +15655,8 @@
       <c r="L365" t="s">
         <v>515</v>
       </c>
-      <c r="M365" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0.26417453453370349</v>
       </c>
@@ -16840,11 +15690,8 @@
       <c r="L366" t="s">
         <v>518</v>
       </c>
-      <c r="M366" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3.1634159505921211</v>
       </c>
@@ -16881,11 +15728,8 @@
       <c r="L367" t="s">
         <v>518</v>
       </c>
-      <c r="M367" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1.145229375113759</v>
       </c>
@@ -16919,11 +15763,8 @@
       <c r="L368" t="s">
         <v>521</v>
       </c>
-      <c r="M368" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>-1.0976063454359379</v>
       </c>
@@ -16957,11 +15798,8 @@
       <c r="L369" t="s">
         <v>523</v>
       </c>
-      <c r="M369" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>-0.57355064913339637</v>
       </c>
@@ -16995,11 +15833,8 @@
       <c r="L370" t="s">
         <v>523</v>
       </c>
-      <c r="M370" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-1.3227364645309549</v>
       </c>
@@ -17033,11 +15868,8 @@
       <c r="L371" t="s">
         <v>523</v>
       </c>
-      <c r="M371" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>0.20087131047794449</v>
       </c>
@@ -17071,11 +15903,8 @@
       <c r="L372" t="s">
         <v>523</v>
       </c>
-      <c r="M372" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0.48107700925994401</v>
       </c>
@@ -17109,11 +15938,8 @@
       <c r="L373" t="s">
         <v>528</v>
       </c>
-      <c r="M373" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.85572718026136774</v>
       </c>
@@ -17147,11 +15973,8 @@
       <c r="L374" t="s">
         <v>530</v>
       </c>
-      <c r="M374" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.33657290620899272</v>
       </c>
@@ -17185,11 +16008,8 @@
       <c r="L375" t="s">
         <v>532</v>
       </c>
-      <c r="M375" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>-0.77545377236546542</v>
       </c>
@@ -17223,11 +16043,8 @@
       <c r="L376" t="s">
         <v>534</v>
       </c>
-      <c r="M376" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-1.2758532266584319</v>
       </c>
@@ -17261,11 +16078,8 @@
       <c r="L377" t="s">
         <v>536</v>
       </c>
-      <c r="M377" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-1.0486875931043169</v>
       </c>
@@ -17299,11 +16113,8 @@
       <c r="L378" t="s">
         <v>536</v>
       </c>
-      <c r="M378" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>-1.3267444907946619</v>
       </c>
@@ -17337,11 +16148,8 @@
       <c r="L379" t="s">
         <v>536</v>
       </c>
-      <c r="M379" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-0.49083068078787617</v>
       </c>
@@ -17375,11 +16183,8 @@
       <c r="L380" t="s">
         <v>536</v>
       </c>
-      <c r="M380" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>-0.66494690555655422</v>
       </c>
@@ -17413,11 +16218,8 @@
       <c r="L381" t="s">
         <v>536</v>
       </c>
-      <c r="M381" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>-1.0301632966833141</v>
       </c>
@@ -17451,11 +16253,8 @@
       <c r="L382" t="s">
         <v>536</v>
       </c>
-      <c r="M382" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-1.0506953109234769</v>
       </c>
@@ -17489,11 +16288,8 @@
       <c r="L383" t="s">
         <v>536</v>
       </c>
-      <c r="M383" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>-0.43054775611891222</v>
       </c>
@@ -17527,11 +16323,8 @@
       <c r="L384" t="s">
         <v>536</v>
       </c>
-      <c r="M384" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>-0.17699391217312019</v>
       </c>
@@ -17565,11 +16358,8 @@
       <c r="L385" t="s">
         <v>545</v>
       </c>
-      <c r="M385" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0.11648389838587379</v>
       </c>
@@ -17603,11 +16393,8 @@
       <c r="L386" t="s">
         <v>545</v>
       </c>
-      <c r="M386" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>-0.49465137882944987</v>
       </c>
@@ -17641,11 +16428,8 @@
       <c r="L387" t="s">
         <v>548</v>
       </c>
-      <c r="M387" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-0.16243381492442041</v>
       </c>
@@ -17679,11 +16463,8 @@
       <c r="L388" t="s">
         <v>550</v>
       </c>
-      <c r="M388" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>0.81043602859771924</v>
       </c>
@@ -17717,11 +16498,8 @@
       <c r="L389" t="s">
         <v>550</v>
       </c>
-      <c r="M389" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1.698844933444162</v>
       </c>
@@ -17755,11 +16533,8 @@
       <c r="L390" t="s">
         <v>550</v>
       </c>
-      <c r="M390" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-0.83145972891033859</v>
       </c>
@@ -17793,11 +16568,8 @@
       <c r="L391" t="s">
         <v>550</v>
       </c>
-      <c r="M391" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>-1.6356258244492518E-2</v>
       </c>
@@ -17831,11 +16603,8 @@
       <c r="L392" t="s">
         <v>550</v>
       </c>
-      <c r="M392" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>8.2243792697125326E-2</v>
       </c>
@@ -17869,11 +16638,8 @@
       <c r="L393" t="s">
         <v>550</v>
       </c>
-      <c r="M393" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>-0.89541918851609059</v>
       </c>
@@ -17907,11 +16673,8 @@
       <c r="L394" t="s">
         <v>557</v>
       </c>
-      <c r="M394" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>-0.75003888850870071</v>
       </c>
@@ -17945,11 +16708,8 @@
       <c r="L395" t="s">
         <v>557</v>
       </c>
-      <c r="M395" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0.2160435960165738</v>
       </c>
@@ -17983,11 +16743,8 @@
       <c r="L396" t="s">
         <v>557</v>
       </c>
-      <c r="M396" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>-0.81501048873224469</v>
       </c>
@@ -18021,11 +16778,8 @@
       <c r="L397" t="s">
         <v>557</v>
       </c>
-      <c r="M397" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>-0.43307963231560609</v>
       </c>
@@ -18059,11 +16813,8 @@
       <c r="L398" t="s">
         <v>557</v>
       </c>
-      <c r="M398" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>8.0375066408642143E-2</v>
       </c>
@@ -18097,11 +16848,8 @@
       <c r="L399" t="s">
         <v>557</v>
       </c>
-      <c r="M399" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>-1.083905466734707</v>
       </c>
@@ -18135,11 +16883,8 @@
       <c r="L400" t="s">
         <v>557</v>
       </c>
-      <c r="M400" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>-0.64453606229719629</v>
       </c>
@@ -18173,11 +16918,8 @@
       <c r="L401" t="s">
         <v>557</v>
       </c>
-      <c r="M401" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>-0.4040041614491619</v>
       </c>
@@ -18211,11 +16953,8 @@
       <c r="L402" t="s">
         <v>557</v>
       </c>
-      <c r="M402" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1.1559244784717241E-2</v>
       </c>
@@ -18249,11 +16988,8 @@
       <c r="L403" t="s">
         <v>557</v>
       </c>
-      <c r="M403" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>8.0375066408642393E-2</v>
       </c>
@@ -18287,11 +17023,8 @@
       <c r="L404" t="s">
         <v>557</v>
       </c>
-      <c r="M404" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>0.29225248542052851</v>
       </c>
@@ -18325,11 +17058,8 @@
       <c r="L405" t="s">
         <v>557</v>
       </c>
-      <c r="M405" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>-0.49525744578729453</v>
       </c>
@@ -18363,11 +17093,8 @@
       <c r="L406" t="s">
         <v>557</v>
       </c>
-      <c r="M406" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>-0.25888281281402931</v>
       </c>
@@ -18401,11 +17128,8 @@
       <c r="L407" t="s">
         <v>557</v>
       </c>
-      <c r="M407" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>-0.2392973107752249</v>
       </c>
@@ -18439,11 +17163,8 @@
       <c r="L408" t="s">
         <v>557</v>
       </c>
-      <c r="M408" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>-0.42632360159431099</v>
       </c>
@@ -18477,11 +17198,8 @@
       <c r="L409" t="s">
         <v>573</v>
       </c>
-      <c r="M409" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>-7.4120434672677142E-3</v>
       </c>
@@ -18515,11 +17233,8 @@
       <c r="L410" t="s">
         <v>573</v>
       </c>
-      <c r="M410" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>-0.1276970898629938</v>
       </c>
@@ -18553,11 +17268,8 @@
       <c r="L411" t="s">
         <v>573</v>
       </c>
-      <c r="M411" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>-0.91505075116495771</v>
       </c>
@@ -18591,11 +17303,8 @@
       <c r="L412" t="s">
         <v>573</v>
       </c>
-      <c r="M412" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0.27166040631156468</v>
       </c>
@@ -18629,11 +17338,8 @@
       <c r="L413" t="s">
         <v>573</v>
       </c>
-      <c r="M413" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>-5.8117532654760598E-3</v>
       </c>
@@ -18667,11 +17373,8 @@
       <c r="L414" t="s">
         <v>573</v>
       </c>
-      <c r="M414" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>-1.417774970231934</v>
       </c>
@@ -18705,11 +17408,8 @@
       <c r="L415" t="s">
         <v>573</v>
       </c>
-      <c r="M415" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>-1.304446887102428</v>
       </c>
@@ -18743,11 +17443,8 @@
       <c r="L416" t="s">
         <v>573</v>
       </c>
-      <c r="M416" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>-1.265463258040868</v>
       </c>
@@ -18781,11 +17478,8 @@
       <c r="L417" t="s">
         <v>573</v>
       </c>
-      <c r="M417" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>-0.70173890349416856</v>
       </c>
@@ -18819,11 +17513,8 @@
       <c r="L418" t="s">
         <v>573</v>
       </c>
-      <c r="M418" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>-0.83431245901179274</v>
       </c>
@@ -18857,11 +17548,8 @@
       <c r="L419" t="s">
         <v>573</v>
       </c>
-      <c r="M419" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>-0.84187991450516053</v>
       </c>
@@ -18895,11 +17583,8 @@
       <c r="L420" t="s">
         <v>573</v>
       </c>
-      <c r="M420" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>-0.96431095857036531</v>
       </c>
@@ -18933,11 +17618,8 @@
       <c r="L421" t="s">
         <v>573</v>
       </c>
-      <c r="M421" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>-0.78070344768729527</v>
       </c>
@@ -18971,11 +17653,8 @@
       <c r="L422" t="s">
         <v>573</v>
       </c>
-      <c r="M422" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>-0.89301067946218049</v>
       </c>
@@ -19009,11 +17688,8 @@
       <c r="L423" t="s">
         <v>573</v>
       </c>
-      <c r="M423" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>-1.174546972555105</v>
       </c>
@@ -19047,11 +17723,8 @@
       <c r="L424" t="s">
         <v>573</v>
       </c>
-      <c r="M424" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>-1.2033061277420889</v>
       </c>
@@ -19085,11 +17758,8 @@
       <c r="L425" t="s">
         <v>573</v>
       </c>
-      <c r="M425" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>-0.55186862311888085</v>
       </c>
@@ -19123,11 +17793,8 @@
       <c r="L426" t="s">
         <v>573</v>
       </c>
-      <c r="M426" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0.2350000201424719</v>
       </c>
@@ -19161,11 +17828,8 @@
       <c r="L427" t="s">
         <v>592</v>
       </c>
-      <c r="M427" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0.89964093941673873</v>
       </c>
@@ -19199,11 +17863,8 @@
       <c r="L428" t="s">
         <v>592</v>
       </c>
-      <c r="M428" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0.84835981261466775</v>
       </c>
@@ -19237,11 +17898,8 @@
       <c r="L429" t="s">
         <v>592</v>
       </c>
-      <c r="M429" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0.29144152134449519</v>
       </c>
@@ -19275,11 +17933,8 @@
       <c r="L430" t="s">
         <v>596</v>
       </c>
-      <c r="M430" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>-0.49030976176299951</v>
       </c>
@@ -19313,11 +17968,8 @@
       <c r="L431" t="s">
         <v>598</v>
       </c>
-      <c r="M431" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>-1.327023814251868</v>
       </c>
@@ -19351,11 +18003,8 @@
       <c r="L432" t="s">
         <v>600</v>
       </c>
-      <c r="M432" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0.21552049647546831</v>
       </c>
@@ -19389,11 +18038,8 @@
       <c r="L433" t="s">
         <v>600</v>
       </c>
-      <c r="M433" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0.17092781558012549</v>
       </c>
@@ -19427,11 +18073,8 @@
       <c r="L434" t="s">
         <v>600</v>
       </c>
-      <c r="M434" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>-0.95058718183390634</v>
       </c>
@@ -19465,11 +18108,8 @@
       <c r="L435" t="s">
         <v>604</v>
       </c>
-      <c r="M435" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>-0.61379574460474084</v>
       </c>
@@ -19503,11 +18143,8 @@
       <c r="L436" t="s">
         <v>604</v>
       </c>
-      <c r="M436" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>6.6298545297752004E-2</v>
       </c>
@@ -19541,11 +18178,8 @@
       <c r="L437" t="s">
         <v>604</v>
       </c>
-      <c r="M437" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0.61022837895463444</v>
       </c>
@@ -19579,11 +18213,8 @@
       <c r="L438" t="s">
         <v>604</v>
       </c>
-      <c r="M438" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>0.61798876905728994</v>
       </c>
@@ -19617,11 +18248,8 @@
       <c r="L439" t="s">
         <v>604</v>
       </c>
-      <c r="M439" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>-0.33300501427985302</v>
       </c>
@@ -19655,11 +18283,8 @@
       <c r="L440" t="s">
         <v>604</v>
       </c>
-      <c r="M440" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0.187790014900832</v>
       </c>
@@ -19693,11 +18318,8 @@
       <c r="L441" t="s">
         <v>611</v>
       </c>
-      <c r="M441" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>-0.64719910918080059</v>
       </c>
@@ -19731,11 +18353,8 @@
       <c r="L442" t="s">
         <v>611</v>
       </c>
-      <c r="M442" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>0.22717783583682241</v>
       </c>
@@ -19769,11 +18388,8 @@
       <c r="L443" t="s">
         <v>611</v>
       </c>
-      <c r="M443" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>-1.254193530305175</v>
       </c>
@@ -19807,11 +18423,8 @@
       <c r="L444" t="s">
         <v>611</v>
       </c>
-      <c r="M444" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1.4116740159031129</v>
       </c>
@@ -19845,11 +18458,8 @@
       <c r="L445" t="s">
         <v>616</v>
       </c>
-      <c r="M445" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>-1.180066499778937</v>
       </c>
@@ -19883,11 +18493,8 @@
       <c r="L446" t="s">
         <v>618</v>
       </c>
-      <c r="M446" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>-0.4348649018074624</v>
       </c>
@@ -19921,11 +18528,8 @@
       <c r="L447" t="s">
         <v>618</v>
       </c>
-      <c r="M447" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>-0.222476709297804</v>
       </c>
@@ -19959,11 +18563,8 @@
       <c r="L448" t="s">
         <v>618</v>
       </c>
-      <c r="M448" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7.8149524211954452E-2</v>
       </c>
@@ -19997,11 +18598,8 @@
       <c r="L449" t="s">
         <v>622</v>
       </c>
-      <c r="M449" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>-0.55006251087011282</v>
       </c>
@@ -20035,11 +18633,8 @@
       <c r="L450" t="s">
         <v>624</v>
       </c>
-      <c r="M450" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0.47855040773132129</v>
       </c>
@@ -20073,11 +18668,8 @@
       <c r="L451" t="s">
         <v>624</v>
       </c>
-      <c r="M451" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>-1.138285435215546</v>
       </c>
@@ -20111,11 +18703,8 @@
       <c r="L452" t="s">
         <v>627</v>
       </c>
-      <c r="M452" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0.24654873454431961</v>
       </c>
@@ -20149,11 +18738,8 @@
       <c r="L453" t="s">
         <v>629</v>
       </c>
-      <c r="M453" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>-0.1211149720436745</v>
       </c>
@@ -20187,11 +18773,8 @@
       <c r="L454" t="s">
         <v>629</v>
       </c>
-      <c r="M454" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>-1.5495696433084329</v>
       </c>
@@ -20225,11 +18808,8 @@
       <c r="L455" t="s">
         <v>629</v>
       </c>
-      <c r="M455" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>0.63063563547386092</v>
       </c>
@@ -20263,11 +18843,8 @@
       <c r="L456" t="s">
         <v>629</v>
       </c>
-      <c r="M456" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>-0.52927703516639124</v>
       </c>
@@ -20301,11 +18878,8 @@
       <c r="L457" t="s">
         <v>634</v>
       </c>
-      <c r="M457" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>-0.84946376150264102</v>
       </c>
@@ -20339,11 +18913,8 @@
       <c r="L458" t="s">
         <v>636</v>
       </c>
-      <c r="M458" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>0.43123664968248931</v>
       </c>
@@ -20377,11 +18948,8 @@
       <c r="L459" t="s">
         <v>636</v>
       </c>
-      <c r="M459" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>-0.49739478900757961</v>
       </c>
@@ -20415,11 +18983,8 @@
       <c r="L460" t="s">
         <v>639</v>
       </c>
-      <c r="M460" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>-0.77265771715802523</v>
       </c>
@@ -20453,11 +19018,8 @@
       <c r="L461" t="s">
         <v>641</v>
       </c>
-      <c r="M461" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>-8.9615997621572019E-2</v>
       </c>
@@ -20491,11 +19053,8 @@
       <c r="L462" t="s">
         <v>641</v>
       </c>
-      <c r="M462" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>0.96704732222589163</v>
       </c>
@@ -20529,11 +19088,8 @@
       <c r="L463" t="s">
         <v>644</v>
       </c>
-      <c r="M463" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>-0.33597238773249871</v>
       </c>
@@ -20567,11 +19123,8 @@
       <c r="L464" t="s">
         <v>646</v>
       </c>
-      <c r="M464" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>0.97226910949675238</v>
       </c>
@@ -20605,11 +19158,8 @@
       <c r="L465" t="s">
         <v>648</v>
       </c>
-      <c r="M465" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1.532942817051155</v>
       </c>
@@ -20643,11 +19193,8 @@
       <c r="L466" t="s">
         <v>650</v>
       </c>
-      <c r="M466" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>-0.1215155665854071</v>
       </c>
@@ -20681,11 +19228,8 @@
       <c r="L467" t="s">
         <v>652</v>
       </c>
-      <c r="M467" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>-0.46777241233011913</v>
       </c>
@@ -20719,11 +19263,8 @@
       <c r="L468" t="s">
         <v>652</v>
       </c>
-      <c r="M468" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0.14278796427547771</v>
       </c>
@@ -20757,11 +19298,8 @@
       <c r="L469" t="s">
         <v>652</v>
       </c>
-      <c r="M469" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>-0.42329877940034721</v>
       </c>
@@ -20795,11 +19333,8 @@
       <c r="L470" t="s">
         <v>656</v>
       </c>
-      <c r="M470" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>0.6050065293274659</v>
       </c>
@@ -20833,11 +19368,8 @@
       <c r="L471" t="s">
         <v>656</v>
       </c>
-      <c r="M471" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1.92629913484621</v>
       </c>
@@ -20871,11 +19403,8 @@
       <c r="L472" t="s">
         <v>656</v>
       </c>
-      <c r="M472" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2.8858436473049491</v>
       </c>
@@ -20909,11 +19438,8 @@
       <c r="L473" t="s">
         <v>656</v>
       </c>
-      <c r="M473" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2.9124601389595579</v>
       </c>
@@ -20947,11 +19473,8 @@
       <c r="L474" t="s">
         <v>656</v>
       </c>
-      <c r="M474" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>0.51654737807572437</v>
       </c>
@@ -20985,11 +19508,8 @@
       <c r="L475" t="s">
         <v>656</v>
       </c>
-      <c r="M475" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>0.4848568127494553</v>
       </c>
@@ -21023,11 +19543,8 @@
       <c r="L476" t="s">
         <v>656</v>
       </c>
-      <c r="M476" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1.013254624969306</v>
       </c>
@@ -21061,11 +19578,8 @@
       <c r="L477" t="s">
         <v>656</v>
       </c>
-      <c r="M477" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2.2054056886836682</v>
       </c>
@@ -21099,11 +19613,8 @@
       <c r="L478" t="s">
         <v>656</v>
       </c>
-      <c r="M478" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1.1605358763121769</v>
       </c>
@@ -21137,11 +19648,8 @@
       <c r="L479" t="s">
         <v>656</v>
       </c>
-      <c r="M479" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>0.90550334338976435</v>
       </c>
@@ -21175,11 +19683,8 @@
       <c r="L480" t="s">
         <v>667</v>
       </c>
-      <c r="M480" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>0.90651829405886142</v>
       </c>
@@ -21213,11 +19718,8 @@
       <c r="L481" t="s">
         <v>667</v>
       </c>
-      <c r="M481" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1.8741842229360459</v>
       </c>
@@ -21254,11 +19756,8 @@
       <c r="L482" t="s">
         <v>667</v>
       </c>
-      <c r="M482" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>-0.61006646677991061</v>
       </c>
@@ -21292,11 +19791,8 @@
       <c r="L483" t="s">
         <v>671</v>
       </c>
-      <c r="M483" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>-0.24089430279858101</v>
       </c>
@@ -21330,11 +19826,8 @@
       <c r="L484" t="s">
         <v>671</v>
       </c>
-      <c r="M484" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>-0.70495475280473752</v>
       </c>
@@ -21368,11 +19861,8 @@
       <c r="L485" t="s">
         <v>671</v>
       </c>
-      <c r="M485" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>-0.76632302643390715</v>
       </c>
@@ -21406,11 +19896,8 @@
       <c r="L486" t="s">
         <v>671</v>
       </c>
-      <c r="M486" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>-0.66875741676310918</v>
       </c>
@@ -21444,11 +19931,8 @@
       <c r="L487" t="s">
         <v>671</v>
       </c>
-      <c r="M487" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>-0.58217181794683392</v>
       </c>
@@ -21482,11 +19966,8 @@
       <c r="L488" t="s">
         <v>671</v>
       </c>
-      <c r="M488" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>-0.71393096648474474</v>
       </c>
@@ -21520,11 +20001,8 @@
       <c r="L489" t="s">
         <v>671</v>
       </c>
-      <c r="M489" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>-0.36820739374487499</v>
       </c>
@@ -21558,11 +20036,8 @@
       <c r="L490" t="s">
         <v>671</v>
       </c>
-      <c r="M490" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>-0.74977402350924038</v>
       </c>
@@ -21596,11 +20071,8 @@
       <c r="L491" t="s">
         <v>671</v>
       </c>
-      <c r="M491" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>-1.008524660081058</v>
       </c>
@@ -21634,11 +20106,8 @@
       <c r="L492" t="s">
         <v>671</v>
       </c>
-      <c r="M492" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>-0.89299744207602261</v>
       </c>
@@ -21672,11 +20141,8 @@
       <c r="L493" t="s">
         <v>671</v>
       </c>
-      <c r="M493" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>-0.64763794678881925</v>
       </c>
@@ -21710,11 +20176,8 @@
       <c r="L494" t="s">
         <v>671</v>
       </c>
-      <c r="M494" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>-0.27904771734948441</v>
       </c>
@@ -21748,11 +20211,8 @@
       <c r="L495" t="s">
         <v>671</v>
       </c>
-      <c r="M495" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2.0147397181171929</v>
       </c>
@@ -21789,11 +20249,8 @@
       <c r="L496" t="s">
         <v>685</v>
       </c>
-      <c r="M496" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1.2715686541130009</v>
       </c>
@@ -21827,11 +20284,8 @@
       <c r="L497" t="s">
         <v>685</v>
       </c>
-      <c r="M497" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>-1.1980997974536109</v>
       </c>
@@ -21865,11 +20319,8 @@
       <c r="L498" t="s">
         <v>688</v>
       </c>
-      <c r="M498" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3.7649897509676851E-2</v>
       </c>
@@ -21903,11 +20354,8 @@
       <c r="L499" t="s">
         <v>690</v>
       </c>
-      <c r="M499" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>-0.27821959959412412</v>
       </c>
@@ -21941,11 +20389,8 @@
       <c r="L500" t="s">
         <v>692</v>
       </c>
-      <c r="M500" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>-0.14111143581156471</v>
       </c>
@@ -21979,11 +20424,8 @@
       <c r="L501" t="s">
         <v>692</v>
       </c>
-      <c r="M501" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>-0.56837910104152078</v>
       </c>
@@ -22017,11 +20459,8 @@
       <c r="L502" t="s">
         <v>692</v>
       </c>
-      <c r="M502" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>0.2634193928486982</v>
       </c>
@@ -22055,11 +20494,8 @@
       <c r="L503" t="s">
         <v>692</v>
       </c>
-      <c r="M503" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>-0.37079266722980259</v>
       </c>
@@ -22093,11 +20529,8 @@
       <c r="L504" t="s">
         <v>692</v>
       </c>
-      <c r="M504" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>-0.37427750697341661</v>
       </c>
@@ -22131,11 +20564,8 @@
       <c r="L505" t="s">
         <v>692</v>
       </c>
-      <c r="M505" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>0.26219783707826172</v>
       </c>
@@ -22169,11 +20599,8 @@
       <c r="L506" t="s">
         <v>692</v>
       </c>
-      <c r="M506" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>-0.40398288033429802</v>
       </c>
@@ -22207,11 +20634,8 @@
       <c r="L507" t="s">
         <v>692</v>
       </c>
-      <c r="M507" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>0.48368124700637238</v>
       </c>
@@ -22245,11 +20669,8 @@
       <c r="L508" t="s">
         <v>692</v>
       </c>
-      <c r="M508" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>0.47400727463388931</v>
       </c>
@@ -22283,11 +20704,8 @@
       <c r="L509" t="s">
         <v>692</v>
       </c>
-      <c r="M509" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>0.59657167538039024</v>
       </c>
@@ -22321,11 +20739,8 @@
       <c r="L510" t="s">
         <v>692</v>
       </c>
-      <c r="M510" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>0.53115365034041628</v>
       </c>
@@ -22359,11 +20774,8 @@
       <c r="L511" t="s">
         <v>692</v>
       </c>
-      <c r="M511" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>-0.85595843614043599</v>
       </c>
@@ -22397,11 +20809,8 @@
       <c r="L512" t="s">
         <v>705</v>
       </c>
-      <c r="M512" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>-0.37166726409836021</v>
       </c>
@@ -22435,11 +20844,8 @@
       <c r="L513" t="s">
         <v>705</v>
       </c>
-      <c r="M513" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1.4212095682094139</v>
       </c>
@@ -22473,11 +20879,8 @@
       <c r="L514" t="s">
         <v>705</v>
       </c>
-      <c r="M514" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>4.5442523461864462E-2</v>
       </c>
@@ -22511,11 +20914,8 @@
       <c r="L515" t="s">
         <v>705</v>
       </c>
-      <c r="M515" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>-3.0243148742887482E-2</v>
       </c>
@@ -22549,11 +20949,8 @@
       <c r="L516" t="s">
         <v>710</v>
       </c>
-      <c r="M516" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2.071508863310571E-2</v>
       </c>
@@ -22587,11 +20984,8 @@
       <c r="L517" t="s">
         <v>710</v>
       </c>
-      <c r="M517" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>1.5593555493855771E-2</v>
       </c>
@@ -22625,11 +21019,8 @@
       <c r="L518" t="s">
         <v>713</v>
       </c>
-      <c r="M518" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4.6241210630408917E-2</v>
       </c>
@@ -22663,11 +21054,8 @@
       <c r="L519" t="s">
         <v>713</v>
       </c>
-      <c r="M519" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>-0.80690433793853311</v>
       </c>
@@ -22701,11 +21089,8 @@
       <c r="L520" t="s">
         <v>716</v>
       </c>
-      <c r="M520" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>-0.37363740887782992</v>
       </c>
@@ -22739,11 +21124,8 @@
       <c r="L521" t="s">
         <v>716</v>
       </c>
-      <c r="M521" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>-0.14943098481849049</v>
       </c>
@@ -22777,11 +21159,8 @@
       <c r="L522" t="s">
         <v>716</v>
       </c>
-      <c r="M522" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>-0.1990252331359402</v>
       </c>
@@ -22815,11 +21194,8 @@
       <c r="L523" t="s">
         <v>720</v>
       </c>
-      <c r="M523" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1.0021001057638271E-2</v>
       </c>
@@ -22853,11 +21229,8 @@
       <c r="L524" t="s">
         <v>722</v>
       </c>
-      <c r="M524" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>-1.5377194129367071</v>
       </c>
@@ -22891,11 +21264,8 @@
       <c r="L525" t="s">
         <v>724</v>
       </c>
-      <c r="M525" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>-1.076844616069123E-2</v>
       </c>
@@ -22929,11 +21299,8 @@
       <c r="L526" t="s">
         <v>724</v>
       </c>
-      <c r="M526" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>0.4971073908615668</v>
       </c>
@@ -22967,11 +21334,8 @@
       <c r="L527" t="s">
         <v>727</v>
       </c>
-      <c r="M527" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5.9918287364486303E-2</v>
       </c>
@@ -23005,11 +21369,8 @@
       <c r="L528" t="s">
         <v>729</v>
       </c>
-      <c r="M528" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>0.50672320120889891</v>
       </c>
@@ -23043,11 +21404,8 @@
       <c r="L529" t="s">
         <v>731</v>
       </c>
-      <c r="M529" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>0.32724229389390802</v>
       </c>
@@ -23081,11 +21439,8 @@
       <c r="L530" t="s">
         <v>731</v>
       </c>
-      <c r="M530" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>-0.54670242454233209</v>
       </c>
@@ -23119,11 +21474,8 @@
       <c r="L531" t="s">
         <v>734</v>
       </c>
-      <c r="M531" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>-0.49337998285254347</v>
       </c>
@@ -23157,11 +21509,8 @@
       <c r="L532" t="s">
         <v>734</v>
       </c>
-      <c r="M532" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>-0.35135769360029617</v>
       </c>
@@ -23195,11 +21544,8 @@
       <c r="L533" t="s">
         <v>734</v>
       </c>
-      <c r="M533" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>-0.39476616912729268</v>
       </c>
@@ -23233,11 +21579,8 @@
       <c r="L534" t="s">
         <v>734</v>
       </c>
-      <c r="M534" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>-6.275694170052612E-2</v>
       </c>
@@ -23271,11 +21614,8 @@
       <c r="L535" t="s">
         <v>734</v>
       </c>
-      <c r="M535" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0.1209093320421251</v>
       </c>
@@ -23309,11 +21649,8 @@
       <c r="L536" t="s">
         <v>734</v>
       </c>
-      <c r="M536" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>-1.076641809296446</v>
       </c>
@@ -23347,11 +21684,8 @@
       <c r="L537" t="s">
         <v>734</v>
       </c>
-      <c r="M537" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>-0.88731504111115989</v>
       </c>
@@ -23385,11 +21719,8 @@
       <c r="L538" t="s">
         <v>734</v>
       </c>
-      <c r="M538" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>-0.73665259071893774</v>
       </c>
@@ -23423,11 +21754,8 @@
       <c r="L539" t="s">
         <v>734</v>
       </c>
-      <c r="M539" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>-0.69520231309939473</v>
       </c>
@@ -23461,11 +21789,8 @@
       <c r="L540" t="s">
         <v>734</v>
       </c>
-      <c r="M540" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>-0.89434098089270031</v>
       </c>
@@ -23499,11 +21824,8 @@
       <c r="L541" t="s">
         <v>734</v>
       </c>
-      <c r="M541" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>-0.75162617881789029</v>
       </c>
@@ -23537,11 +21859,8 @@
       <c r="L542" t="s">
         <v>734</v>
       </c>
-      <c r="M542" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>-1.3208416812584971</v>
       </c>
@@ -23575,11 +21894,8 @@
       <c r="L543" t="s">
         <v>747</v>
       </c>
-      <c r="M543" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>-0.80915744645007504</v>
       </c>
@@ -23613,11 +21929,8 @@
       <c r="L544" t="s">
         <v>747</v>
       </c>
-      <c r="M544" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>-0.37453925459093951</v>
       </c>
@@ -23651,11 +21964,8 @@
       <c r="L545" t="s">
         <v>747</v>
       </c>
-      <c r="M545" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>-0.54358147517857935</v>
       </c>
@@ -23689,11 +21999,8 @@
       <c r="L546" t="s">
         <v>747</v>
       </c>
-      <c r="M546" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>-0.92910298992341844</v>
       </c>
@@ -23727,11 +22034,8 @@
       <c r="L547" t="s">
         <v>747</v>
       </c>
-      <c r="M547" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>-0.59598999195161895</v>
       </c>
@@ -23765,11 +22069,8 @@
       <c r="L548" t="s">
         <v>747</v>
       </c>
-      <c r="M548" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>-1.417197374736261</v>
       </c>
@@ -23803,11 +22104,8 @@
       <c r="L549" t="s">
         <v>747</v>
       </c>
-      <c r="M549" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>-1.5290132258966309</v>
       </c>
@@ -23841,11 +22139,8 @@
       <c r="L550" t="s">
         <v>747</v>
       </c>
-      <c r="M550" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>-0.79795087756698069</v>
       </c>
@@ -23879,11 +22174,8 @@
       <c r="L551" t="s">
         <v>747</v>
       </c>
-      <c r="M551" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>-1.1912883344966749</v>
       </c>
@@ -23917,11 +22209,8 @@
       <c r="L552" t="s">
         <v>747</v>
       </c>
-      <c r="M552" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>0.3510029634014471</v>
       </c>
@@ -23955,11 +22244,8 @@
       <c r="L553" t="s">
         <v>758</v>
       </c>
-      <c r="M553" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>-6.2811457755686598E-2</v>
       </c>
@@ -23993,11 +22279,8 @@
       <c r="L554" t="s">
         <v>758</v>
       </c>
-      <c r="M554" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>-0.67174750083788903</v>
       </c>
@@ -24031,11 +22314,8 @@
       <c r="L555" t="s">
         <v>761</v>
       </c>
-      <c r="M555" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>0.44347583905251431</v>
       </c>
@@ -24069,11 +22349,8 @@
       <c r="L556" t="s">
         <v>763</v>
       </c>
-      <c r="M556" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>0.94343013586035296</v>
       </c>
@@ -24107,11 +22384,8 @@
       <c r="L557" t="s">
         <v>765</v>
       </c>
-      <c r="M557" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>-0.2377358214651131</v>
       </c>
@@ -24145,11 +22419,8 @@
       <c r="L558" t="s">
         <v>767</v>
       </c>
-      <c r="M558" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>-1.1990936627043549</v>
       </c>
@@ -24183,11 +22454,8 @@
       <c r="L559" t="s">
         <v>769</v>
       </c>
-      <c r="M559" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>-0.18914658384233499</v>
       </c>
@@ -24221,11 +22489,8 @@
       <c r="L560" t="s">
         <v>769</v>
       </c>
-      <c r="M560" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>-6.8568273544705113E-3</v>
       </c>
@@ -24259,11 +22524,8 @@
       <c r="L561" t="s">
         <v>772</v>
       </c>
-      <c r="M561" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>-0.91100194426008585</v>
       </c>
@@ -24296,9 +22558,6 @@
       </c>
       <c r="L562" t="s">
         <v>772</v>
-      </c>
-      <c r="M562" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>
